--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.427872087141684</v>
+        <v>3.427872087141678</v>
       </c>
       <c r="E2">
-        <v>17.84981585011835</v>
+        <v>17.84981585011839</v>
       </c>
       <c r="F2">
-        <v>39.47586789940713</v>
+        <v>39.4758678994071</v>
       </c>
       <c r="G2">
-        <v>29.57518706792097</v>
+        <v>29.57518706792096</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.49777743605475</v>
+        <v>13.49777743605479</v>
       </c>
       <c r="J2">
         <v>72.87969684385951</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907333231540713</v>
+        <v>6.907333231540751</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.10267485739203</v>
+        <v>3.102674857392029</v>
       </c>
       <c r="E3">
-        <v>16.42725874282161</v>
+        <v>16.42725874282164</v>
       </c>
       <c r="F3">
-        <v>35.85647325817403</v>
+        <v>35.85647325817418</v>
       </c>
       <c r="G3">
-        <v>26.74459356216203</v>
+        <v>26.74459356216213</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.39404033483381</v>
+        <v>12.39404033483384</v>
       </c>
       <c r="J3">
-        <v>67.55929613497653</v>
+        <v>67.55929613497649</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67739580808016</v>
+        <v>6.67739580808017</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.906328107969997</v>
+        <v>2.906328107970046</v>
       </c>
       <c r="E4">
-        <v>15.53087381743605</v>
+        <v>15.53087381743598</v>
       </c>
       <c r="F4">
-        <v>33.65594925009589</v>
+        <v>33.65594925009594</v>
       </c>
       <c r="G4">
-        <v>25.02311701687073</v>
+        <v>25.0231170168708</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>11.70326690705843</v>
       </c>
       <c r="J4">
-        <v>64.16305340749985</v>
+        <v>64.16305340749973</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582464793398842</v>
+        <v>6.582464793398783</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.826774656403974</v>
+        <v>2.826774656403868</v>
       </c>
       <c r="E5">
-        <v>15.15893622586781</v>
+        <v>15.15893622586783</v>
       </c>
       <c r="F5">
-        <v>32.7623067783571</v>
+        <v>32.76230677835702</v>
       </c>
       <c r="G5">
-        <v>24.323739904899</v>
+        <v>24.32373990489892</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.41768143838096</v>
+        <v>11.41768143838097</v>
       </c>
       <c r="J5">
-        <v>62.74429078121291</v>
+        <v>62.7442907812131</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566630475510379</v>
+        <v>6.566630475510417</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.813582918575717</v>
+        <v>2.813582918575396</v>
       </c>
       <c r="E6">
-        <v>15.09675156394957</v>
+        <v>15.09675156394965</v>
       </c>
       <c r="F6">
-        <v>32.61405014130206</v>
+        <v>32.61405014130239</v>
       </c>
       <c r="G6">
-        <v>24.20769115606636</v>
+        <v>24.2076911560666</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.36999258303759</v>
+        <v>11.36999258303763</v>
       </c>
       <c r="J6">
-        <v>62.50654918187133</v>
+        <v>62.50654918187114</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676120374386577</v>
+        <v>6.676120374386553</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.905253808804555</v>
+        <v>2.90525380880437</v>
       </c>
       <c r="E7">
-        <v>15.52588572976054</v>
+        <v>15.5258857297606</v>
       </c>
       <c r="F7">
-        <v>33.64388733827612</v>
+        <v>33.64388733827633</v>
       </c>
       <c r="G7">
-        <v>25.01367851397308</v>
+        <v>25.01367851397323</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>11.69943291000889</v>
       </c>
       <c r="J7">
-        <v>64.14406288468405</v>
+        <v>64.14406288468412</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.148229682178847</v>
+        <v>7.148229682178897</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.314802482622787</v>
+        <v>3.314802482622747</v>
       </c>
       <c r="E8">
-        <v>17.36348492440485</v>
+        <v>17.36348492440488</v>
       </c>
       <c r="F8">
-        <v>38.22166208610317</v>
+        <v>38.22166208610325</v>
       </c>
       <c r="G8">
-        <v>28.59434217542335</v>
+        <v>28.59434217542337</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.11938656733068</v>
+        <v>13.11938656733066</v>
       </c>
       <c r="J8">
-        <v>71.07064179239325</v>
+        <v>71.07064179239339</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.029817696828232</v>
+        <v>8.029817696828122</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.166557048009016</v>
+        <v>4.166557048008972</v>
       </c>
       <c r="E9">
-        <v>20.8375377148916</v>
+        <v>20.83753771489158</v>
       </c>
       <c r="F9">
-        <v>47.53540032171758</v>
+        <v>47.53540032171738</v>
       </c>
       <c r="G9">
-        <v>35.8818214722948</v>
+        <v>35.88182147229463</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.84776218851611</v>
+        <v>15.84776218851609</v>
       </c>
       <c r="J9">
-        <v>83.75344441659087</v>
+        <v>83.7534444165909</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.726915531492887</v>
+        <v>8.726915531492908</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.866347515674704</v>
+        <v>4.866347515674559</v>
       </c>
       <c r="E10">
-        <v>23.41603591563247</v>
+        <v>23.41603591563253</v>
       </c>
       <c r="F10">
-        <v>54.94100159945395</v>
+        <v>54.94100159945398</v>
       </c>
       <c r="G10">
-        <v>41.68797317847003</v>
+        <v>41.68797317847002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.91374363179523</v>
+        <v>17.91374363179527</v>
       </c>
       <c r="J10">
-        <v>92.7705953446891</v>
+        <v>92.77059534468893</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.058900258584149</v>
+        <v>9.058900258584224</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.217482306740885</v>
+        <v>5.217482306740847</v>
       </c>
       <c r="E11">
-        <v>24.63460716722667</v>
+        <v>24.63460716722669</v>
       </c>
       <c r="F11">
-        <v>58.57481880129296</v>
+        <v>58.57481880129288</v>
       </c>
       <c r="G11">
-        <v>44.54215678567804</v>
+        <v>44.54215678567795</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.90341034170017</v>
+        <v>18.90341034170015</v>
       </c>
       <c r="J11">
-        <v>96.89840735523219</v>
+        <v>96.89840735523251</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -798,25 +798,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.357531800276218</v>
+        <v>5.357531800276272</v>
       </c>
       <c r="E12">
         <v>25.10830069822898</v>
       </c>
       <c r="F12">
-        <v>60.00957858731262</v>
+        <v>60.00957858731238</v>
       </c>
       <c r="G12">
-        <v>45.67011110022322</v>
+        <v>45.67011110022302</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.29055638823553</v>
+        <v>19.29055638823552</v>
       </c>
       <c r="J12">
-        <v>98.47789699816167</v>
+        <v>98.4778969981613</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.156328764853601</v>
+        <v>9.156328764853635</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.327002377386447</v>
+        <v>5.327002377386511</v>
       </c>
       <c r="E13">
-        <v>25.00561128462168</v>
+        <v>25.00561128462183</v>
       </c>
       <c r="F13">
-        <v>59.69750812178769</v>
+        <v>59.69750812178846</v>
       </c>
       <c r="G13">
-        <v>45.42472278671595</v>
+        <v>45.42472278671658</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.20651106590283</v>
+        <v>19.20651106590297</v>
       </c>
       <c r="J13">
-        <v>98.13671972667561</v>
+        <v>98.13671972667602</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.069139667097545</v>
+        <v>9.069139667097529</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.228844050409339</v>
+        <v>5.228844050409409</v>
       </c>
       <c r="E14">
-        <v>24.6732886264123</v>
+        <v>24.67328862641235</v>
       </c>
       <c r="F14">
-        <v>58.69152062541818</v>
+        <v>58.69152062541809</v>
       </c>
       <c r="G14">
-        <v>44.63388141559184</v>
+        <v>44.63388141559175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.93497247443621</v>
+        <v>18.93497247443623</v>
       </c>
       <c r="J14">
-        <v>97.02792762140265</v>
+        <v>97.02792762140272</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.015530760619727</v>
+        <v>9.01553076061964</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.169733706290459</v>
+        <v>5.169733706290534</v>
       </c>
       <c r="E15">
-        <v>24.47154881693817</v>
+        <v>24.47154881693819</v>
       </c>
       <c r="F15">
-        <v>58.08377699789135</v>
+        <v>58.08377699789163</v>
       </c>
       <c r="G15">
-        <v>44.15625285915062</v>
+        <v>44.15625285915083</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.77046358029181</v>
+        <v>18.77046358029184</v>
       </c>
       <c r="J15">
-        <v>96.35138300278047</v>
+        <v>96.35138300278039</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.704975601727432</v>
+        <v>8.70497560172743</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.8442355516713</v>
+        <v>4.844235551671307</v>
       </c>
       <c r="E16">
-        <v>23.33773808636876</v>
+        <v>23.33773808636878</v>
       </c>
       <c r="F16">
-        <v>54.7103788116918</v>
+        <v>54.71037881169178</v>
       </c>
       <c r="G16">
-        <v>41.50695226274833</v>
+        <v>41.50695226274831</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>17.85045520239301</v>
       </c>
       <c r="J16">
-        <v>92.50229632417485</v>
+        <v>92.50229632417486</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.511261023063614</v>
+        <v>8.511261023063648</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.654292242044187</v>
+        <v>4.654292242044114</v>
       </c>
       <c r="E17">
-        <v>22.6570682427434</v>
+        <v>22.65706824274341</v>
       </c>
       <c r="F17">
-        <v>52.72036778813612</v>
+        <v>52.72036778813609</v>
       </c>
       <c r="G17">
-        <v>39.945530586231</v>
+        <v>39.94553058623098</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.30176210464133</v>
+        <v>17.30176210464136</v>
       </c>
       <c r="J17">
-        <v>90.1548403056923</v>
+        <v>90.1548403056922</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.398592754931638</v>
+        <v>8.39859275493165</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.547939646811614</v>
+        <v>4.54793964681167</v>
       </c>
       <c r="E18">
-        <v>22.2694007999929</v>
+        <v>22.26940079999291</v>
       </c>
       <c r="F18">
-        <v>51.59904725783274</v>
+        <v>51.59904725783269</v>
       </c>
       <c r="G18">
-        <v>39.0661563502595</v>
+        <v>39.06615635025948</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.99044136791253</v>
+        <v>16.99044136791252</v>
       </c>
       <c r="J18">
-        <v>88.80607376324609</v>
+        <v>88.80607376324583</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.360224713163907</v>
+        <v>8.360224713163827</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.512374035378433</v>
+        <v>4.512374035378499</v>
       </c>
       <c r="E19">
-        <v>22.13867256525546</v>
+        <v>22.13867256525545</v>
       </c>
       <c r="F19">
-        <v>51.22291803786909</v>
+        <v>51.22291803786902</v>
       </c>
       <c r="G19">
-        <v>38.77125406815404</v>
+        <v>38.77125406815401</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.88564884915929</v>
+        <v>16.8856488491593</v>
       </c>
       <c r="J19">
-        <v>88.34935786147611</v>
+        <v>88.34935786147618</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.532010031199762</v>
+        <v>8.532010031199741</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.674198686093504</v>
+        <v>4.67419868609338</v>
       </c>
       <c r="E20">
-        <v>22.72909755072546</v>
+        <v>22.72909755072543</v>
       </c>
       <c r="F20">
-        <v>52.92968205343892</v>
+        <v>52.92968205343869</v>
       </c>
       <c r="G20">
-        <v>40.10971644763385</v>
+        <v>40.10971644763362</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.35969973154108</v>
+        <v>17.35969973154109</v>
       </c>
       <c r="J20">
-        <v>90.4045108338016</v>
+        <v>90.40451083380113</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.094790923639112</v>
+        <v>9.094790923639074</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.257457883048107</v>
+        <v>5.257457883047921</v>
       </c>
       <c r="E21">
-        <v>24.77050601593982</v>
+        <v>24.77050601593983</v>
       </c>
       <c r="F21">
-        <v>58.98518731613398</v>
+        <v>58.98518731613396</v>
       </c>
       <c r="G21">
-        <v>44.86471301697772</v>
+        <v>44.86471301697765</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.01433758581365</v>
+        <v>19.01433758581366</v>
       </c>
       <c r="J21">
-        <v>97.35302713955093</v>
+        <v>97.35302713955102</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.453312938422972</v>
+        <v>9.453312938422954</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.682210900385876</v>
+        <v>5.682210900385807</v>
       </c>
       <c r="E22">
-        <v>26.18160743803572</v>
+        <v>26.18160743803582</v>
       </c>
       <c r="F22">
-        <v>63.30508510060825</v>
+        <v>63.30508510060867</v>
       </c>
       <c r="G22">
-        <v>48.26317561231625</v>
+        <v>48.26317561231655</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.17298490972843</v>
+        <v>20.17298490972854</v>
       </c>
       <c r="J22">
         <v>102.0017535269479</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.262696720329719</v>
+        <v>9.262696720329682</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.450341406797198</v>
+        <v>5.450341406797183</v>
       </c>
       <c r="E23">
-        <v>25.41856785578626</v>
+        <v>25.41856785578617</v>
       </c>
       <c r="F23">
-        <v>60.95592903867064</v>
+        <v>60.9559290386702</v>
       </c>
       <c r="G23">
-        <v>46.41442075216159</v>
+        <v>46.41442075216124</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.54489307663503</v>
+        <v>19.54489307663495</v>
       </c>
       <c r="J23">
-        <v>99.50452614275174</v>
+        <v>99.50452614275135</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.522633468274703</v>
+        <v>8.522633468274805</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.665190268598061</v>
+        <v>4.665190268597993</v>
       </c>
       <c r="E24">
-        <v>22.6965220829424</v>
+        <v>22.69652208294247</v>
       </c>
       <c r="F24">
-        <v>52.83498154215481</v>
+        <v>52.83498154215528</v>
       </c>
       <c r="G24">
-        <v>40.03543209370657</v>
+        <v>40.03543209370692</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.33349361229788</v>
+        <v>17.33349361229791</v>
       </c>
       <c r="J24">
-        <v>90.29163308991782</v>
+        <v>90.2916330899178</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.796291942889759</v>
+        <v>7.796291942889848</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.927234705403714</v>
+        <v>3.927234705403626</v>
       </c>
       <c r="E25">
-        <v>19.90285263449212</v>
+        <v>19.90285263449204</v>
       </c>
       <c r="F25">
-        <v>44.95111461253889</v>
+        <v>44.9511146125387</v>
       </c>
       <c r="G25">
-        <v>33.85854672950775</v>
+        <v>33.85854672950762</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>15.10774732337866</v>
       </c>
       <c r="J25">
-        <v>80.39786748535526</v>
+        <v>80.39786748535478</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.427872087141678</v>
+        <v>3.427872087141684</v>
       </c>
       <c r="E2">
-        <v>17.84981585011839</v>
+        <v>17.84981585011835</v>
       </c>
       <c r="F2">
-        <v>39.4758678994071</v>
+        <v>39.47586789940713</v>
       </c>
       <c r="G2">
-        <v>29.57518706792096</v>
+        <v>29.57518706792097</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.49777743605479</v>
+        <v>13.49777743605475</v>
       </c>
       <c r="J2">
         <v>72.87969684385951</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907333231540751</v>
+        <v>6.907333231540713</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.102674857392029</v>
+        <v>3.10267485739203</v>
       </c>
       <c r="E3">
-        <v>16.42725874282164</v>
+        <v>16.42725874282161</v>
       </c>
       <c r="F3">
-        <v>35.85647325817418</v>
+        <v>35.85647325817403</v>
       </c>
       <c r="G3">
-        <v>26.74459356216213</v>
+        <v>26.74459356216203</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.39404033483384</v>
+        <v>12.39404033483381</v>
       </c>
       <c r="J3">
-        <v>67.55929613497649</v>
+        <v>67.55929613497653</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67739580808017</v>
+        <v>6.67739580808016</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.906328107970046</v>
+        <v>2.906328107969997</v>
       </c>
       <c r="E4">
-        <v>15.53087381743598</v>
+        <v>15.53087381743605</v>
       </c>
       <c r="F4">
-        <v>33.65594925009594</v>
+        <v>33.65594925009589</v>
       </c>
       <c r="G4">
-        <v>25.0231170168708</v>
+        <v>25.02311701687073</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>11.70326690705843</v>
       </c>
       <c r="J4">
-        <v>64.16305340749973</v>
+        <v>64.16305340749985</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582464793398783</v>
+        <v>6.582464793398842</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.826774656403868</v>
+        <v>2.826774656403974</v>
       </c>
       <c r="E5">
-        <v>15.15893622586783</v>
+        <v>15.15893622586781</v>
       </c>
       <c r="F5">
-        <v>32.76230677835702</v>
+        <v>32.7623067783571</v>
       </c>
       <c r="G5">
-        <v>24.32373990489892</v>
+        <v>24.323739904899</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.41768143838097</v>
+        <v>11.41768143838096</v>
       </c>
       <c r="J5">
-        <v>62.7442907812131</v>
+        <v>62.74429078121291</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566630475510417</v>
+        <v>6.566630475510379</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.813582918575396</v>
+        <v>2.813582918575717</v>
       </c>
       <c r="E6">
-        <v>15.09675156394965</v>
+        <v>15.09675156394957</v>
       </c>
       <c r="F6">
-        <v>32.61405014130239</v>
+        <v>32.61405014130206</v>
       </c>
       <c r="G6">
-        <v>24.2076911560666</v>
+        <v>24.20769115606636</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.36999258303763</v>
+        <v>11.36999258303759</v>
       </c>
       <c r="J6">
-        <v>62.50654918187114</v>
+        <v>62.50654918187133</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676120374386553</v>
+        <v>6.676120374386577</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.90525380880437</v>
+        <v>2.905253808804555</v>
       </c>
       <c r="E7">
-        <v>15.5258857297606</v>
+        <v>15.52588572976054</v>
       </c>
       <c r="F7">
-        <v>33.64388733827633</v>
+        <v>33.64388733827612</v>
       </c>
       <c r="G7">
-        <v>25.01367851397323</v>
+        <v>25.01367851397308</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>11.69943291000889</v>
       </c>
       <c r="J7">
-        <v>64.14406288468412</v>
+        <v>64.14406288468405</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.148229682178897</v>
+        <v>7.148229682178847</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.314802482622747</v>
+        <v>3.314802482622787</v>
       </c>
       <c r="E8">
-        <v>17.36348492440488</v>
+        <v>17.36348492440485</v>
       </c>
       <c r="F8">
-        <v>38.22166208610325</v>
+        <v>38.22166208610317</v>
       </c>
       <c r="G8">
-        <v>28.59434217542337</v>
+        <v>28.59434217542335</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.11938656733066</v>
+        <v>13.11938656733068</v>
       </c>
       <c r="J8">
-        <v>71.07064179239339</v>
+        <v>71.07064179239325</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.029817696828122</v>
+        <v>8.029817696828232</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.166557048008972</v>
+        <v>4.166557048009016</v>
       </c>
       <c r="E9">
-        <v>20.83753771489158</v>
+        <v>20.8375377148916</v>
       </c>
       <c r="F9">
-        <v>47.53540032171738</v>
+        <v>47.53540032171758</v>
       </c>
       <c r="G9">
-        <v>35.88182147229463</v>
+        <v>35.8818214722948</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.84776218851609</v>
+        <v>15.84776218851611</v>
       </c>
       <c r="J9">
-        <v>83.7534444165909</v>
+        <v>83.75344441659087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.726915531492908</v>
+        <v>8.726915531492887</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.866347515674559</v>
+        <v>4.866347515674704</v>
       </c>
       <c r="E10">
-        <v>23.41603591563253</v>
+        <v>23.41603591563247</v>
       </c>
       <c r="F10">
-        <v>54.94100159945398</v>
+        <v>54.94100159945395</v>
       </c>
       <c r="G10">
-        <v>41.68797317847002</v>
+        <v>41.68797317847003</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.91374363179527</v>
+        <v>17.91374363179523</v>
       </c>
       <c r="J10">
-        <v>92.77059534468893</v>
+        <v>92.7705953446891</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.058900258584224</v>
+        <v>9.058900258584149</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.217482306740847</v>
+        <v>5.217482306740885</v>
       </c>
       <c r="E11">
-        <v>24.63460716722669</v>
+        <v>24.63460716722667</v>
       </c>
       <c r="F11">
-        <v>58.57481880129288</v>
+        <v>58.57481880129296</v>
       </c>
       <c r="G11">
-        <v>44.54215678567795</v>
+        <v>44.54215678567804</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.90341034170015</v>
+        <v>18.90341034170017</v>
       </c>
       <c r="J11">
-        <v>96.89840735523251</v>
+        <v>96.89840735523219</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -798,25 +798,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.357531800276272</v>
+        <v>5.357531800276218</v>
       </c>
       <c r="E12">
         <v>25.10830069822898</v>
       </c>
       <c r="F12">
-        <v>60.00957858731238</v>
+        <v>60.00957858731262</v>
       </c>
       <c r="G12">
-        <v>45.67011110022302</v>
+        <v>45.67011110022322</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.29055638823552</v>
+        <v>19.29055638823553</v>
       </c>
       <c r="J12">
-        <v>98.4778969981613</v>
+        <v>98.47789699816167</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.156328764853635</v>
+        <v>9.156328764853601</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.327002377386511</v>
+        <v>5.327002377386447</v>
       </c>
       <c r="E13">
-        <v>25.00561128462183</v>
+        <v>25.00561128462168</v>
       </c>
       <c r="F13">
-        <v>59.69750812178846</v>
+        <v>59.69750812178769</v>
       </c>
       <c r="G13">
-        <v>45.42472278671658</v>
+        <v>45.42472278671595</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.20651106590297</v>
+        <v>19.20651106590283</v>
       </c>
       <c r="J13">
-        <v>98.13671972667602</v>
+        <v>98.13671972667561</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.069139667097529</v>
+        <v>9.069139667097545</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.228844050409409</v>
+        <v>5.228844050409339</v>
       </c>
       <c r="E14">
-        <v>24.67328862641235</v>
+        <v>24.6732886264123</v>
       </c>
       <c r="F14">
-        <v>58.69152062541809</v>
+        <v>58.69152062541818</v>
       </c>
       <c r="G14">
-        <v>44.63388141559175</v>
+        <v>44.63388141559184</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.93497247443623</v>
+        <v>18.93497247443621</v>
       </c>
       <c r="J14">
-        <v>97.02792762140272</v>
+        <v>97.02792762140265</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.01553076061964</v>
+        <v>9.015530760619727</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.169733706290534</v>
+        <v>5.169733706290459</v>
       </c>
       <c r="E15">
-        <v>24.47154881693819</v>
+        <v>24.47154881693817</v>
       </c>
       <c r="F15">
-        <v>58.08377699789163</v>
+        <v>58.08377699789135</v>
       </c>
       <c r="G15">
-        <v>44.15625285915083</v>
+        <v>44.15625285915062</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.77046358029184</v>
+        <v>18.77046358029181</v>
       </c>
       <c r="J15">
-        <v>96.35138300278039</v>
+        <v>96.35138300278047</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.70497560172743</v>
+        <v>8.704975601727432</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.844235551671307</v>
+        <v>4.8442355516713</v>
       </c>
       <c r="E16">
-        <v>23.33773808636878</v>
+        <v>23.33773808636876</v>
       </c>
       <c r="F16">
-        <v>54.71037881169178</v>
+        <v>54.7103788116918</v>
       </c>
       <c r="G16">
-        <v>41.50695226274831</v>
+        <v>41.50695226274833</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>17.85045520239301</v>
       </c>
       <c r="J16">
-        <v>92.50229632417486</v>
+        <v>92.50229632417485</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.511261023063648</v>
+        <v>8.511261023063614</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.654292242044114</v>
+        <v>4.654292242044187</v>
       </c>
       <c r="E17">
-        <v>22.65706824274341</v>
+        <v>22.6570682427434</v>
       </c>
       <c r="F17">
-        <v>52.72036778813609</v>
+        <v>52.72036778813612</v>
       </c>
       <c r="G17">
-        <v>39.94553058623098</v>
+        <v>39.945530586231</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.30176210464136</v>
+        <v>17.30176210464133</v>
       </c>
       <c r="J17">
-        <v>90.1548403056922</v>
+        <v>90.1548403056923</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.39859275493165</v>
+        <v>8.398592754931638</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.54793964681167</v>
+        <v>4.547939646811614</v>
       </c>
       <c r="E18">
-        <v>22.26940079999291</v>
+        <v>22.2694007999929</v>
       </c>
       <c r="F18">
-        <v>51.59904725783269</v>
+        <v>51.59904725783274</v>
       </c>
       <c r="G18">
-        <v>39.06615635025948</v>
+        <v>39.0661563502595</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.99044136791252</v>
+        <v>16.99044136791253</v>
       </c>
       <c r="J18">
-        <v>88.80607376324583</v>
+        <v>88.80607376324609</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.360224713163827</v>
+        <v>8.360224713163907</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.512374035378499</v>
+        <v>4.512374035378433</v>
       </c>
       <c r="E19">
-        <v>22.13867256525545</v>
+        <v>22.13867256525546</v>
       </c>
       <c r="F19">
-        <v>51.22291803786902</v>
+        <v>51.22291803786909</v>
       </c>
       <c r="G19">
-        <v>38.77125406815401</v>
+        <v>38.77125406815404</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.8856488491593</v>
+        <v>16.88564884915929</v>
       </c>
       <c r="J19">
-        <v>88.34935786147618</v>
+        <v>88.34935786147611</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.532010031199741</v>
+        <v>8.532010031199762</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.67419868609338</v>
+        <v>4.674198686093504</v>
       </c>
       <c r="E20">
-        <v>22.72909755072543</v>
+        <v>22.72909755072546</v>
       </c>
       <c r="F20">
-        <v>52.92968205343869</v>
+        <v>52.92968205343892</v>
       </c>
       <c r="G20">
-        <v>40.10971644763362</v>
+        <v>40.10971644763385</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.35969973154109</v>
+        <v>17.35969973154108</v>
       </c>
       <c r="J20">
-        <v>90.40451083380113</v>
+        <v>90.4045108338016</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.094790923639074</v>
+        <v>9.094790923639112</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.257457883047921</v>
+        <v>5.257457883048107</v>
       </c>
       <c r="E21">
-        <v>24.77050601593983</v>
+        <v>24.77050601593982</v>
       </c>
       <c r="F21">
-        <v>58.98518731613396</v>
+        <v>58.98518731613398</v>
       </c>
       <c r="G21">
-        <v>44.86471301697765</v>
+        <v>44.86471301697772</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.01433758581366</v>
+        <v>19.01433758581365</v>
       </c>
       <c r="J21">
-        <v>97.35302713955102</v>
+        <v>97.35302713955093</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.453312938422954</v>
+        <v>9.453312938422972</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.682210900385807</v>
+        <v>5.682210900385876</v>
       </c>
       <c r="E22">
-        <v>26.18160743803582</v>
+        <v>26.18160743803572</v>
       </c>
       <c r="F22">
-        <v>63.30508510060867</v>
+        <v>63.30508510060825</v>
       </c>
       <c r="G22">
-        <v>48.26317561231655</v>
+        <v>48.26317561231625</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.17298490972854</v>
+        <v>20.17298490972843</v>
       </c>
       <c r="J22">
         <v>102.0017535269479</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.262696720329682</v>
+        <v>9.262696720329719</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.450341406797183</v>
+        <v>5.450341406797198</v>
       </c>
       <c r="E23">
-        <v>25.41856785578617</v>
+        <v>25.41856785578626</v>
       </c>
       <c r="F23">
-        <v>60.9559290386702</v>
+        <v>60.95592903867064</v>
       </c>
       <c r="G23">
-        <v>46.41442075216124</v>
+        <v>46.41442075216159</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.54489307663495</v>
+        <v>19.54489307663503</v>
       </c>
       <c r="J23">
-        <v>99.50452614275135</v>
+        <v>99.50452614275174</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.522633468274805</v>
+        <v>8.522633468274703</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.665190268597993</v>
+        <v>4.665190268598061</v>
       </c>
       <c r="E24">
-        <v>22.69652208294247</v>
+        <v>22.6965220829424</v>
       </c>
       <c r="F24">
-        <v>52.83498154215528</v>
+        <v>52.83498154215481</v>
       </c>
       <c r="G24">
-        <v>40.03543209370692</v>
+        <v>40.03543209370657</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.33349361229791</v>
+        <v>17.33349361229788</v>
       </c>
       <c r="J24">
-        <v>90.2916330899178</v>
+        <v>90.29163308991782</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.796291942889848</v>
+        <v>7.796291942889759</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.927234705403626</v>
+        <v>3.927234705403714</v>
       </c>
       <c r="E25">
-        <v>19.90285263449204</v>
+        <v>19.90285263449212</v>
       </c>
       <c r="F25">
-        <v>44.9511146125387</v>
+        <v>44.95111461253889</v>
       </c>
       <c r="G25">
-        <v>33.85854672950762</v>
+        <v>33.85854672950775</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>15.10774732337866</v>
       </c>
       <c r="J25">
-        <v>80.39786748535478</v>
+        <v>80.39786748535526</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.273267131850498</v>
+        <v>7.27322109732372</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.427872087141684</v>
+        <v>3.42770349294186</v>
       </c>
       <c r="E2">
-        <v>17.84981585011835</v>
+        <v>17.85040966722364</v>
       </c>
       <c r="F2">
-        <v>39.47586789940713</v>
+        <v>39.43526460767603</v>
       </c>
       <c r="G2">
-        <v>29.57518706792097</v>
+        <v>29.61231384584388</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.04219120741376</v>
       </c>
       <c r="I2">
-        <v>13.49777743605475</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>72.87969684385951</v>
+        <v>13.49431027353291</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>72.87331898987824</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907333231540713</v>
+        <v>6.907303666936571</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.10267485739203</v>
+        <v>3.103120299664211</v>
       </c>
       <c r="E3">
-        <v>16.42725874282161</v>
+        <v>16.42811706721963</v>
       </c>
       <c r="F3">
-        <v>35.85647325817403</v>
+        <v>35.82011205237046</v>
       </c>
       <c r="G3">
-        <v>26.74459356216203</v>
+        <v>26.77853555987577</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.31566290077563</v>
       </c>
       <c r="I3">
-        <v>12.39404033483381</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>67.55929613497653</v>
+        <v>12.39111763077116</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>67.55441981836384</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67739580808016</v>
+        <v>6.677374548484686</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.906328107969997</v>
+        <v>2.907118466633611</v>
       </c>
       <c r="E4">
-        <v>15.53087381743605</v>
+        <v>15.53185239673425</v>
       </c>
       <c r="F4">
-        <v>33.65594925009589</v>
+        <v>33.62205568336562</v>
       </c>
       <c r="G4">
-        <v>25.02311701687073</v>
+        <v>25.05506030239196</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.67034913205835</v>
       </c>
       <c r="I4">
-        <v>11.70326690705843</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>64.16305340749985</v>
+        <v>11.70064577543072</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>64.1589936508342</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582464793398842</v>
+        <v>6.582446545195957</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.826774656403974</v>
+        <v>2.82769902212454</v>
       </c>
       <c r="E5">
-        <v>15.15893622586781</v>
+        <v>15.15995547239257</v>
       </c>
       <c r="F5">
-        <v>32.7623067783571</v>
+        <v>32.72939463623106</v>
       </c>
       <c r="G5">
-        <v>24.323739904899</v>
+        <v>24.3548616987097</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.00533008651302</v>
       </c>
       <c r="I5">
-        <v>11.41768143838096</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>62.74429078121291</v>
+        <v>11.41517722163436</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>62.7405436968024</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566630475510379</v>
+        <v>6.566612706810458</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.813582918575717</v>
+        <v>2.814529177940762</v>
       </c>
       <c r="E6">
-        <v>15.09675156394957</v>
+        <v>15.09777711388769</v>
       </c>
       <c r="F6">
-        <v>32.61405014130206</v>
+        <v>32.5812997513729</v>
       </c>
       <c r="G6">
-        <v>24.20769115606636</v>
+        <v>24.23867621911138</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>23.89519453592151</v>
       </c>
       <c r="I6">
-        <v>11.36999258303759</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>62.50654918187133</v>
+        <v>11.36750747310805</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>62.50285296061611</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676120374386577</v>
+        <v>6.676099156821559</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.905253808804555</v>
+        <v>2.906045999515785</v>
       </c>
       <c r="E7">
-        <v>15.52588572976054</v>
+        <v>15.52686488874664</v>
       </c>
       <c r="F7">
-        <v>33.64388733827612</v>
+        <v>33.61000709371741</v>
       </c>
       <c r="G7">
-        <v>25.01367851397308</v>
+        <v>25.04561074432296</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.66136021273855</v>
       </c>
       <c r="I7">
-        <v>11.69943291000889</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>64.14406288468405</v>
+        <v>11.69681337681883</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>64.14000741885141</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.148229682178847</v>
+        <v>7.148189758348404</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.314802482622787</v>
+        <v>3.314853325701787</v>
       </c>
       <c r="E8">
-        <v>17.36348492440485</v>
+        <v>17.36418028573326</v>
       </c>
       <c r="F8">
-        <v>38.22166208610317</v>
+        <v>38.18255714428895</v>
       </c>
       <c r="G8">
-        <v>28.59434217542335</v>
+        <v>28.63038244132365</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.09481509322339</v>
       </c>
       <c r="I8">
-        <v>13.11938656733068</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>71.07064179239325</v>
+        <v>13.1161155055902</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>71.06480799618427</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.029817696828232</v>
+        <v>8.029721323889962</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.166557048009016</v>
+        <v>4.164799263402698</v>
       </c>
       <c r="E9">
-        <v>20.8375377148916</v>
+        <v>20.8371857993946</v>
       </c>
       <c r="F9">
-        <v>47.53540032171758</v>
+        <v>47.48425950355509</v>
       </c>
       <c r="G9">
-        <v>35.8818214722948</v>
+        <v>35.9253185853843</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>35.18198719129681</v>
       </c>
       <c r="I9">
-        <v>15.84776218851611</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>83.75344441659087</v>
+        <v>15.842799978162</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>83.74286102237882</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.726915531492887</v>
+        <v>8.726681769031124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.866347515674704</v>
+        <v>4.862812626127044</v>
       </c>
       <c r="E10">
-        <v>23.41603591563247</v>
+        <v>23.41422916216916</v>
       </c>
       <c r="F10">
-        <v>54.94100159945395</v>
+        <v>54.87823806025275</v>
       </c>
       <c r="G10">
-        <v>41.68797317847003</v>
+        <v>41.73591130439586</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>40.88451344871121</v>
       </c>
       <c r="I10">
-        <v>17.91374363179523</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>92.7705953446891</v>
+        <v>17.90691129820866</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>92.75474715978559</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.058900258584149</v>
+        <v>9.058616473123649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.217482306740885</v>
+        <v>5.212934956271374</v>
       </c>
       <c r="E11">
-        <v>24.63460716722667</v>
+        <v>24.63179832393376</v>
       </c>
       <c r="F11">
-        <v>58.57481880129296</v>
+        <v>58.50535939790781</v>
       </c>
       <c r="G11">
-        <v>44.54215678567804</v>
+        <v>44.59151878987386</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.69909789447821</v>
       </c>
       <c r="I11">
-        <v>18.90341034170017</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>96.89840735523219</v>
+        <v>18.89540711845241</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>96.87930423148153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.182985412412826</v>
+        <v>9.182679607128978</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.357531800276218</v>
+        <v>5.352553694840964</v>
       </c>
       <c r="E12">
-        <v>25.10830069822898</v>
+        <v>25.10502921250638</v>
       </c>
       <c r="F12">
-        <v>60.00957858731262</v>
+        <v>59.93724159271888</v>
       </c>
       <c r="G12">
-        <v>45.67011110022322</v>
+        <v>45.71985444687851</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>44.81296789681966</v>
       </c>
       <c r="I12">
-        <v>19.29055638823553</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>98.47789699816167</v>
+        <v>19.28203112564907</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>98.45735578790922</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.156328764853601</v>
+        <v>9.156027868396551</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.327002377386447</v>
+        <v>5.32211959102528</v>
       </c>
       <c r="E13">
-        <v>25.00561128462168</v>
+        <v>25.002444002384</v>
       </c>
       <c r="F13">
-        <v>59.69750812178769</v>
+        <v>59.62580954668955</v>
       </c>
       <c r="G13">
-        <v>45.42472278671595</v>
+        <v>45.47439292177511</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>44.57057573849038</v>
       </c>
       <c r="I13">
-        <v>19.20651106590283</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>98.13671972667561</v>
+        <v>19.19810255311801</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>98.1164994057561</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.069139667097545</v>
+        <v>9.068854141961079</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.228844050409339</v>
+        <v>5.22426236351614</v>
       </c>
       <c r="E14">
-        <v>24.6732886264123</v>
+        <v>24.67044368688935</v>
       </c>
       <c r="F14">
-        <v>58.69152062541818</v>
+        <v>58.62183253346392</v>
       </c>
       <c r="G14">
-        <v>44.63388141559184</v>
+        <v>44.6832786087239</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.789646723816</v>
       </c>
       <c r="I14">
-        <v>18.93497247443621</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>97.02792762140265</v>
+        <v>18.9269281623775</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>97.0087110062078</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.015530760619727</v>
+        <v>9.015254199036523</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.169733706290459</v>
+        <v>5.165329520588433</v>
       </c>
       <c r="E15">
-        <v>24.47154881693817</v>
+        <v>24.46888900270595</v>
       </c>
       <c r="F15">
-        <v>58.08377699789135</v>
+        <v>58.01526987005774</v>
       </c>
       <c r="G15">
-        <v>44.15625285915062</v>
+        <v>44.20545907610541</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>43.31820241601755</v>
       </c>
       <c r="I15">
-        <v>18.77046358029181</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>96.35138300278047</v>
+        <v>18.7626306975518</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>96.33275092121055</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.704975601727432</v>
+        <v>8.704744761538906</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.8442355516713</v>
+        <v>4.840761455576702</v>
       </c>
       <c r="E16">
-        <v>23.33773808636876</v>
+        <v>23.33598760618866</v>
       </c>
       <c r="F16">
-        <v>54.7103788116918</v>
+        <v>54.64801478033444</v>
       </c>
       <c r="G16">
-        <v>41.50695226274833</v>
+        <v>41.55478046250366</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>40.70621830724828</v>
       </c>
       <c r="I16">
-        <v>17.85045520239301</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>92.50229632417485</v>
+        <v>17.8436906858494</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>92.48663783128546</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.511261023063614</v>
+        <v>8.511054267282663</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.654292242044187</v>
+        <v>4.651327101749097</v>
       </c>
       <c r="E17">
-        <v>22.6570682427434</v>
+        <v>22.65577114090262</v>
       </c>
       <c r="F17">
-        <v>52.72036778813612</v>
+        <v>52.66133995425383</v>
       </c>
       <c r="G17">
-        <v>39.945530586231</v>
+        <v>39.99232558568184</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>39.1695084420714</v>
       </c>
       <c r="I17">
-        <v>17.30176210464133</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>90.1548403056923</v>
+        <v>17.2955544410006</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>90.14074365293516</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.398592754931638</v>
+        <v>8.398398723908947</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.547939646811614</v>
+        <v>4.545249548542694</v>
       </c>
       <c r="E18">
-        <v>22.2694007999929</v>
+        <v>22.26833534755685</v>
       </c>
       <c r="F18">
-        <v>51.59904725783274</v>
+        <v>51.54181748624177</v>
       </c>
       <c r="G18">
-        <v>39.0661563502595</v>
+        <v>39.11230717368498</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>38.30506868299367</v>
       </c>
       <c r="I18">
-        <v>16.99044136791253</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>88.80607376324609</v>
+        <v>16.98452661935157</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>88.79280138969699</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.360224713163907</v>
+        <v>8.360034821228455</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.512374035378433</v>
+        <v>4.509774391432534</v>
       </c>
       <c r="E19">
-        <v>22.13867256525546</v>
+        <v>22.13768122039982</v>
       </c>
       <c r="F19">
-        <v>51.22291803786909</v>
+        <v>51.16627911904548</v>
       </c>
       <c r="G19">
-        <v>38.77125406815404</v>
+        <v>38.81717956730085</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>38.0153514588127</v>
       </c>
       <c r="I19">
-        <v>16.88564884915929</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>88.34935786147611</v>
+        <v>16.87982922325995</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>88.33635351111009</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.532010031199762</v>
+        <v>8.531800834488916</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.674198686093504</v>
+        <v>4.671181290990853</v>
       </c>
       <c r="E20">
-        <v>22.72909755072546</v>
+        <v>22.72775537124596</v>
       </c>
       <c r="F20">
-        <v>52.92968205343892</v>
+        <v>52.87031229089024</v>
       </c>
       <c r="G20">
-        <v>40.10971644763385</v>
+        <v>40.15662694331791</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>39.33099020364343</v>
       </c>
       <c r="I20">
-        <v>17.35969973154108</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>90.4045108338016</v>
+        <v>17.35343578667062</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>90.39025600179286</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.094790923639112</v>
+        <v>9.09450098133731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.257457883048107</v>
+        <v>5.25278925410459</v>
       </c>
       <c r="E21">
-        <v>24.77050601593982</v>
+        <v>24.76756906970427</v>
       </c>
       <c r="F21">
-        <v>58.98518731613398</v>
+        <v>58.91491964656262</v>
       </c>
       <c r="G21">
-        <v>44.86471301697772</v>
+        <v>44.91419557137696</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>44.01754374669471</v>
       </c>
       <c r="I21">
-        <v>19.01433758581365</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>97.35302713955093</v>
+        <v>19.00618882825453</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>97.33352226647227</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.453312938422972</v>
+        <v>9.452950836571205</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.682210900385876</v>
+        <v>5.676165504708377</v>
       </c>
       <c r="E22">
-        <v>26.18160743803572</v>
+        <v>26.17709994917641</v>
       </c>
       <c r="F22">
-        <v>63.30508510060825</v>
+        <v>63.22553024099573</v>
       </c>
       <c r="G22">
-        <v>48.26317561231625</v>
+        <v>48.31332047318395</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>47.37644776209524</v>
       </c>
       <c r="I22">
-        <v>20.17298490972843</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>102.0017535269479</v>
+        <v>20.1631048171897</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>101.9775194080167</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.262696720329719</v>
+        <v>9.262375603893219</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.450341406797198</v>
+        <v>5.445068456173225</v>
       </c>
       <c r="E23">
-        <v>25.41856785578626</v>
+        <v>25.41496754163394</v>
       </c>
       <c r="F23">
-        <v>60.95592903867064</v>
+        <v>60.88161103922845</v>
       </c>
       <c r="G23">
-        <v>46.41442075216159</v>
+        <v>46.46435105613549</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>45.54840868124876</v>
       </c>
       <c r="I23">
-        <v>19.54489307663503</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>99.50452614275174</v>
+        <v>19.53600225415577</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>99.48298291185863</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.522633468274703</v>
+        <v>8.52242537852689</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.665190268598061</v>
+        <v>4.662196551466922</v>
       </c>
       <c r="E24">
-        <v>22.6965220829424</v>
+        <v>22.69520037129075</v>
       </c>
       <c r="F24">
-        <v>52.83498154215481</v>
+        <v>52.77576673051296</v>
       </c>
       <c r="G24">
-        <v>40.03543209370657</v>
+        <v>40.08229052549576</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>39.25792609566042</v>
       </c>
       <c r="I24">
-        <v>17.33349361229788</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>90.29163308991782</v>
+        <v>17.32725519495985</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>90.27744999502042</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.796291942889759</v>
+        <v>7.796213917629435</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.927234705403714</v>
+        <v>3.926021828137477</v>
       </c>
       <c r="E25">
-        <v>19.90285263449212</v>
+        <v>19.90286481205703</v>
       </c>
       <c r="F25">
-        <v>44.95111461253889</v>
+        <v>44.9035473229939</v>
       </c>
       <c r="G25">
-        <v>33.85854672950775</v>
+        <v>33.90013735669035</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>33.20458779208789</v>
       </c>
       <c r="I25">
-        <v>15.10774732337866</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>80.39786748535526</v>
+        <v>15.10331453516792</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>80.38877965973199</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27322109732372</v>
+        <v>20.1457735407661</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.42770349294186</v>
+        <v>14.55655313373771</v>
       </c>
       <c r="E2">
-        <v>17.85040966722364</v>
+        <v>18.88628137422269</v>
       </c>
       <c r="F2">
-        <v>39.43526460767603</v>
+        <v>65.40521544955934</v>
       </c>
       <c r="G2">
-        <v>29.61231384584388</v>
+        <v>2.082353878396435</v>
       </c>
       <c r="H2">
-        <v>29.04219120741376</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.49431027353291</v>
+        <v>9.847069795729873</v>
       </c>
       <c r="K2">
-        <v>72.87331898987824</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.28631950024222</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.9767486989161</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.907303666936571</v>
+        <v>19.06525728052588</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.103120299664211</v>
+        <v>13.40452058300894</v>
       </c>
       <c r="E3">
-        <v>16.42811706721963</v>
+        <v>17.51505119615314</v>
       </c>
       <c r="F3">
-        <v>35.82011205237046</v>
+        <v>62.15758183206138</v>
       </c>
       <c r="G3">
-        <v>26.77853555987577</v>
+        <v>2.106091737105531</v>
       </c>
       <c r="H3">
-        <v>26.31566290077563</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.39111763077116</v>
+        <v>9.390780792138237</v>
       </c>
       <c r="K3">
-        <v>67.55441981836384</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.37887551775794</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.19356953069657</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.677374548484686</v>
+        <v>18.39786712493962</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.907118466633611</v>
+        <v>12.67564657318457</v>
       </c>
       <c r="E4">
-        <v>15.53185239673425</v>
+        <v>16.64730955747206</v>
       </c>
       <c r="F4">
-        <v>33.62205568336562</v>
+        <v>60.19212880732406</v>
       </c>
       <c r="G4">
-        <v>25.05506030239196</v>
+        <v>2.120700753281921</v>
       </c>
       <c r="H4">
-        <v>24.67034913205835</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.70064577543072</v>
+        <v>9.106888872413734</v>
       </c>
       <c r="K4">
-        <v>64.1589936508342</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.92079461166487</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.7174755147178</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582446545195957</v>
+        <v>18.12496094816831</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.82769902212454</v>
+        <v>12.37270615389474</v>
       </c>
       <c r="E5">
-        <v>15.15995547239257</v>
+        <v>16.28662929844741</v>
       </c>
       <c r="F5">
-        <v>32.72939463623106</v>
+        <v>59.39770000560115</v>
       </c>
       <c r="G5">
-        <v>24.3548616987097</v>
+        <v>2.126679218589561</v>
       </c>
       <c r="H5">
-        <v>24.00533008651302</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.41517722163436</v>
+        <v>8.990095770705556</v>
       </c>
       <c r="K5">
-        <v>62.7405436968024</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.73391062754385</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.52465363464662</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566612706810458</v>
+        <v>18.0795919892298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.814529177940762</v>
+        <v>12.32203237677687</v>
       </c>
       <c r="E6">
-        <v>15.09777711388769</v>
+        <v>16.22629668546863</v>
       </c>
       <c r="F6">
-        <v>32.5812997513729</v>
+        <v>59.26616524415498</v>
       </c>
       <c r="G6">
-        <v>24.23867621911138</v>
+        <v>2.12767389745798</v>
       </c>
       <c r="H6">
-        <v>23.89519453592151</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.36750747310805</v>
+        <v>8.970631619740386</v>
       </c>
       <c r="K6">
-        <v>62.50285296061611</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.70286619690663</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.49270869139984</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676099156821559</v>
+        <v>18.39419027018766</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.906045999515785</v>
+        <v>12.67158558724569</v>
       </c>
       <c r="E7">
-        <v>15.52686488874664</v>
+        <v>16.6424746094151</v>
       </c>
       <c r="F7">
-        <v>33.61000709371741</v>
+        <v>60.18138916436035</v>
       </c>
       <c r="G7">
-        <v>25.04561074432296</v>
+        <v>2.120781258876953</v>
       </c>
       <c r="H7">
-        <v>24.66136021273855</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.69681337681883</v>
+        <v>9.10531842071101</v>
       </c>
       <c r="K7">
-        <v>64.14000741885141</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.91827508517635</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.71487019224872</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.148189758348404</v>
+        <v>19.77402777910087</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.314853325701787</v>
+        <v>14.16346677469636</v>
       </c>
       <c r="E8">
-        <v>17.36418028573326</v>
+        <v>18.41845143613427</v>
       </c>
       <c r="F8">
-        <v>38.18255714428895</v>
+        <v>64.27896615168174</v>
       </c>
       <c r="G8">
-        <v>28.63038244132365</v>
+        <v>2.090542559026558</v>
       </c>
       <c r="H8">
-        <v>28.09481509322339</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.1161155055902</v>
+        <v>9.690398952674663</v>
       </c>
       <c r="K8">
-        <v>71.06480799618427</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.93773956221014</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.70568305318708</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.029721323889962</v>
+        <v>22.45298698004303</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.164799263402698</v>
+        <v>16.94664155935184</v>
       </c>
       <c r="E9">
-        <v>20.8371857993946</v>
+        <v>21.72964886485121</v>
       </c>
       <c r="F9">
-        <v>47.48425950355509</v>
+        <v>72.59570396489927</v>
       </c>
       <c r="G9">
-        <v>35.9253185853843</v>
+        <v>2.030585052331374</v>
       </c>
       <c r="H9">
-        <v>35.18198719129681</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.842799978162</v>
+        <v>10.81881977260295</v>
       </c>
       <c r="K9">
-        <v>83.74286102237882</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.38874905268665</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.05616063375509</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.726681769031124</v>
+        <v>24.58383859656961</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.862812626127044</v>
+        <v>18.95638040584895</v>
       </c>
       <c r="E10">
-        <v>23.41422916216916</v>
+        <v>24.11950686256172</v>
       </c>
       <c r="F10">
-        <v>54.87823806025275</v>
+        <v>79.00264811988626</v>
       </c>
       <c r="G10">
-        <v>41.73591130439586</v>
+        <v>1.984442430243462</v>
       </c>
       <c r="H10">
-        <v>40.88451344871121</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.90691129820866</v>
+        <v>11.65782660831307</v>
       </c>
       <c r="K10">
-        <v>92.75474715978559</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.13277604692928</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.16454888815785</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.058616473123649</v>
+        <v>25.62056905477285</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.212934956271374</v>
+        <v>19.87991897017494</v>
       </c>
       <c r="E11">
-        <v>24.63179832393376</v>
+        <v>25.2178025814492</v>
       </c>
       <c r="F11">
-        <v>58.50535939790781</v>
+        <v>82.0298188524864</v>
       </c>
       <c r="G11">
-        <v>44.59151878987386</v>
+        <v>1.962447013375966</v>
       </c>
       <c r="H11">
-        <v>43.69909789447821</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.89540711845241</v>
+        <v>12.04927221007583</v>
       </c>
       <c r="K11">
-        <v>96.87930423148153</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.92649476990713</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.11885469739177</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.182679607128978</v>
+        <v>26.01418892193942</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.352553694840964</v>
+        <v>20.23302409233828</v>
       </c>
       <c r="E12">
-        <v>25.10502921250638</v>
+        <v>25.63779704984537</v>
       </c>
       <c r="F12">
-        <v>59.93724159271888</v>
+        <v>83.19859038727215</v>
       </c>
       <c r="G12">
-        <v>45.71985444687851</v>
+        <v>1.953906792726725</v>
       </c>
       <c r="H12">
-        <v>44.81296789681966</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.28203112564907</v>
+        <v>12.19986960458437</v>
       </c>
       <c r="K12">
-        <v>98.45735578790922</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>18.22863443518794</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.48115508538543</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.156027868396551</v>
+        <v>25.92934022776977</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.32211959102528</v>
+        <v>20.15678546715244</v>
       </c>
       <c r="E13">
-        <v>25.002444002384</v>
+        <v>25.54711180746363</v>
       </c>
       <c r="F13">
-        <v>59.62580954668955</v>
+        <v>82.9457485651576</v>
       </c>
       <c r="G13">
-        <v>45.47439292177511</v>
+        <v>1.955756791918054</v>
       </c>
       <c r="H13">
-        <v>44.57057573849038</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.19810255311801</v>
+        <v>12.16731112843473</v>
       </c>
       <c r="K13">
-        <v>98.1164994057561</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>18.16346283850901</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.40305393701609</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.068854141961079</v>
+        <v>25.65292122754482</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.22426236351614</v>
+        <v>19.90888699123242</v>
       </c>
       <c r="E14">
-        <v>24.67044368688935</v>
+        <v>25.25225613667113</v>
       </c>
       <c r="F14">
-        <v>58.62183253346392</v>
+        <v>82.12547951678705</v>
       </c>
       <c r="G14">
-        <v>44.6832786087239</v>
+        <v>1.961749101344729</v>
       </c>
       <c r="H14">
-        <v>43.789646723816</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.9269281623775</v>
+        <v>12.06160768835038</v>
       </c>
       <c r="K14">
-        <v>97.0087110062078</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.95130968960029</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.14863147556871</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.015254199036523</v>
+        <v>25.48379437567402</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.165329520588433</v>
+        <v>19.75755558248873</v>
       </c>
       <c r="E15">
-        <v>24.46888900270595</v>
+        <v>25.07227121594179</v>
       </c>
       <c r="F15">
-        <v>58.01526987005774</v>
+        <v>81.62619308469827</v>
       </c>
       <c r="G15">
-        <v>44.20545907610541</v>
+        <v>1.965389700067024</v>
       </c>
       <c r="H15">
-        <v>43.31820241601755</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.7626306975518</v>
+        <v>11.99720417944928</v>
       </c>
       <c r="K15">
-        <v>96.33275092121055</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.82161950850529</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.99296867071355</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.704744761538906</v>
+        <v>24.51613808116742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.840761455576702</v>
+        <v>18.8963710401804</v>
       </c>
       <c r="E16">
-        <v>23.33598760618866</v>
+        <v>24.04814823146649</v>
       </c>
       <c r="F16">
-        <v>54.64801478033444</v>
+        <v>78.80756186576073</v>
       </c>
       <c r="G16">
-        <v>41.55478046250366</v>
+        <v>1.985854484271755</v>
       </c>
       <c r="H16">
-        <v>40.70621830724828</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.8436906858494</v>
+        <v>11.63251548020798</v>
       </c>
       <c r="K16">
-        <v>92.48663783128546</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>17.08103043726583</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.10221193030497</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.511054267282663</v>
+        <v>23.92261778410846</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.651327101749097</v>
+        <v>18.37168998878114</v>
       </c>
       <c r="E17">
-        <v>22.65577114090262</v>
+        <v>23.42424966607793</v>
       </c>
       <c r="F17">
-        <v>52.66133995425383</v>
+        <v>77.11099935476786</v>
       </c>
       <c r="G17">
-        <v>39.99232558568184</v>
+        <v>1.998110978787881</v>
       </c>
       <c r="H17">
-        <v>39.1695084420714</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.2955544410006</v>
+        <v>11.41187211881863</v>
       </c>
       <c r="K17">
-        <v>90.14074365293516</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.62772434839485</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.55551815103357</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.398398723908947</v>
+        <v>23.58084075744749</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.545249548542694</v>
+        <v>18.07062789987532</v>
       </c>
       <c r="E18">
-        <v>22.26833534755685</v>
+        <v>23.06625882804502</v>
       </c>
       <c r="F18">
-        <v>51.54181748624177</v>
+        <v>76.14529449850431</v>
       </c>
       <c r="G18">
-        <v>39.11230717368498</v>
+        <v>2.005071031539163</v>
       </c>
       <c r="H18">
-        <v>38.30506868299367</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.98452661935157</v>
+        <v>11.28581032020318</v>
       </c>
       <c r="K18">
-        <v>88.79280138969699</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.36691262399888</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.24049952977044</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.360034821228455</v>
+        <v>23.46501587872379</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.509774391432534</v>
+        <v>17.96876578883838</v>
       </c>
       <c r="E19">
-        <v>22.13768122039982</v>
+        <v>22.94513436661637</v>
       </c>
       <c r="F19">
-        <v>51.16627911904548</v>
+        <v>75.81990723788202</v>
       </c>
       <c r="G19">
-        <v>38.81717956730085</v>
+        <v>2.007413879927904</v>
       </c>
       <c r="H19">
-        <v>38.0153514588127</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.87982922325995</v>
+        <v>11.24324960664133</v>
       </c>
       <c r="K19">
-        <v>88.33635351111009</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.27855372960567</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.13370008646526</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.531800834488916</v>
+        <v>23.98583146994953</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.671181290990853</v>
+        <v>18.42745600366938</v>
       </c>
       <c r="E20">
-        <v>22.72775537124596</v>
+        <v>23.49056049914943</v>
       </c>
       <c r="F20">
-        <v>52.87031229089024</v>
+        <v>77.29051695214122</v>
       </c>
       <c r="G20">
-        <v>40.15662694331791</v>
+        <v>1.996815933664006</v>
       </c>
       <c r="H20">
-        <v>39.33099020364343</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.35343578667062</v>
+        <v>11.43526654613063</v>
       </c>
       <c r="K20">
-        <v>90.39025600179286</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.6759786307018</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.61376412811504</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.09450098133731</v>
+        <v>25.73406958228843</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.25278925410459</v>
+        <v>19.9815889945329</v>
       </c>
       <c r="E21">
-        <v>24.76756906970427</v>
+        <v>25.33872679701897</v>
       </c>
       <c r="F21">
-        <v>58.91491964656262</v>
+        <v>82.36574057449171</v>
       </c>
       <c r="G21">
-        <v>44.91419557137696</v>
+        <v>1.959995393101631</v>
       </c>
       <c r="H21">
-        <v>44.01754374669471</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.00618882825453</v>
+        <v>12.09258161457981</v>
       </c>
       <c r="K21">
-        <v>97.33352226647227</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>18.01356653650053</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.22332061173084</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.452950836571205</v>
+        <v>26.88381741349752</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.676165504708377</v>
+        <v>21.0185821789466</v>
       </c>
       <c r="E22">
-        <v>26.17709994917641</v>
+        <v>26.57239889616442</v>
       </c>
       <c r="F22">
-        <v>63.22553024099573</v>
+        <v>85.81854803596033</v>
       </c>
       <c r="G22">
-        <v>48.31332047318395</v>
+        <v>1.934650057031465</v>
       </c>
       <c r="H22">
-        <v>47.37644776209524</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.1631048171897</v>
+        <v>12.53672225146982</v>
       </c>
       <c r="K22">
-        <v>101.9775194080167</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.89810769205868</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.28188529938664</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.262375603893219</v>
+        <v>26.26886846285988</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.445068456173225</v>
+        <v>20.46228106558382</v>
       </c>
       <c r="E23">
-        <v>25.41496754163394</v>
+        <v>25.91051369125046</v>
       </c>
       <c r="F23">
-        <v>60.88161103922845</v>
+        <v>83.96048681489606</v>
       </c>
       <c r="G23">
-        <v>46.46435105613549</v>
+        <v>1.948323506938414</v>
       </c>
       <c r="H23">
-        <v>45.54840868124876</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.53600225415577</v>
+        <v>12.29791854131724</v>
       </c>
       <c r="K23">
-        <v>99.48298291185863</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.42440095865927</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.71560112585352</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.52242537852689</v>
+        <v>23.95725439163233</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.662196551466922</v>
+        <v>18.40224251238264</v>
       </c>
       <c r="E24">
-        <v>22.69520037129075</v>
+        <v>23.46057937560743</v>
       </c>
       <c r="F24">
-        <v>52.77576673051296</v>
+        <v>77.20932735587603</v>
       </c>
       <c r="G24">
-        <v>40.08229052549576</v>
+        <v>1.99740168792188</v>
       </c>
       <c r="H24">
-        <v>39.25792609566042</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.32725519495985</v>
+        <v>11.42468753474996</v>
       </c>
       <c r="K24">
-        <v>90.27744999502042</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.65416359959361</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.5874334689172</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.796213917629435</v>
+        <v>21.72991360860517</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.926021828137477</v>
+        <v>16.20440732999097</v>
       </c>
       <c r="E25">
-        <v>19.90286481205703</v>
+        <v>20.84685481829878</v>
       </c>
       <c r="F25">
-        <v>44.9035473229939</v>
+        <v>70.30574538701183</v>
       </c>
       <c r="G25">
-        <v>33.90013735669035</v>
+        <v>2.047024676059255</v>
       </c>
       <c r="H25">
-        <v>33.20458779208789</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.10331453516792</v>
+        <v>10.5137711783981</v>
       </c>
       <c r="K25">
-        <v>80.38877965973199</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.73904883805073</v>
       </c>
       <c r="M25">
+        <v>18.26721749551652</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.1457735407661</v>
+        <v>7.270294347196199</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.55655313373771</v>
+        <v>4.481846752498103</v>
       </c>
       <c r="E2">
-        <v>18.88628137422269</v>
+        <v>13.82768385038255</v>
       </c>
       <c r="F2">
-        <v>65.40521544955934</v>
+        <v>16.03352878207398</v>
       </c>
       <c r="G2">
-        <v>2.082353878396435</v>
+        <v>19.42822443439935</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.614707927906602</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.847069795729873</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.56153186098173</v>
       </c>
       <c r="L2">
-        <v>13.28631950024222</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.9767486989161</v>
+        <v>16.00349211342168</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.91631693515441</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.29070464018912</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.06525728052588</v>
+        <v>6.910334590374837</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.40452058300894</v>
+        <v>4.282307140145885</v>
       </c>
       <c r="E3">
-        <v>17.51505119615314</v>
+        <v>13.0797880334353</v>
       </c>
       <c r="F3">
-        <v>62.15758183206138</v>
+        <v>15.53137944129929</v>
       </c>
       <c r="G3">
-        <v>2.106091737105531</v>
+        <v>18.69576770548557</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.614492867740013</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.390780792138237</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.84268349624073</v>
       </c>
       <c r="L3">
-        <v>12.37887551775794</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>16.19356953069657</v>
+        <v>15.01244948874599</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.08474293732183</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.13457881137399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.39786712493962</v>
+        <v>6.682600297681216</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.67564657318457</v>
+        <v>4.154329865932669</v>
       </c>
       <c r="E4">
-        <v>16.64730955747206</v>
+        <v>12.61243782662354</v>
       </c>
       <c r="F4">
-        <v>60.19212880732406</v>
+        <v>15.22977168722238</v>
       </c>
       <c r="G4">
-        <v>2.120700753281921</v>
+        <v>18.25451098560411</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.619610526729895</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.106888872413734</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.38089769726386</v>
       </c>
       <c r="L4">
-        <v>11.92079461166487</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.7174755147178</v>
+        <v>14.37169548608024</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.19124975149836</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.04917951564319</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12496094816831</v>
+        <v>6.588239562434324</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.37270615389474</v>
+        <v>4.100843604430385</v>
       </c>
       <c r="E5">
-        <v>16.28662929844741</v>
+        <v>12.42018636164356</v>
       </c>
       <c r="F5">
-        <v>59.39770000560115</v>
+        <v>15.10871846719006</v>
       </c>
       <c r="G5">
-        <v>2.126679218589561</v>
+        <v>18.07709472617609</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.622972774558113</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.990095770705556</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.18770604044624</v>
       </c>
       <c r="L5">
-        <v>11.73391062754385</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>15.52465363464662</v>
+        <v>14.10248243595474</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.2354371796163</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.01696717289534</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0795919892298</v>
+        <v>6.572481252219981</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.32203237677687</v>
+        <v>4.091882895742758</v>
       </c>
       <c r="E6">
-        <v>16.22629668546863</v>
+        <v>12.3881623004801</v>
       </c>
       <c r="F6">
-        <v>59.26616524415498</v>
+        <v>15.08873454026839</v>
       </c>
       <c r="G6">
-        <v>2.12767389745798</v>
+        <v>18.04778780614514</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.62360691659894</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.970631619740386</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.15532816861913</v>
       </c>
       <c r="L6">
-        <v>11.70286619690663</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>15.49270869139984</v>
+        <v>14.05729114846937</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.24282210136101</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.0117732781174</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39419027018766</v>
+        <v>6.681333830996465</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.67158558724569</v>
+        <v>4.153613879570671</v>
       </c>
       <c r="E7">
-        <v>16.6424746094151</v>
+        <v>12.60985199869913</v>
       </c>
       <c r="F7">
-        <v>60.18138916436035</v>
+        <v>15.22813139258137</v>
       </c>
       <c r="G7">
-        <v>2.120781258876953</v>
+        <v>18.2521082118866</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.619650758974533</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.10531842071101</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.37831235363636</v>
       </c>
       <c r="L7">
-        <v>11.91827508517635</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.71487019224872</v>
+        <v>14.36809755998649</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.19184249012142</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.04873466984568</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.77402777910087</v>
+        <v>7.147647374444333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.16346677469636</v>
+        <v>4.414199573030538</v>
       </c>
       <c r="E8">
-        <v>18.41845143613427</v>
+        <v>13.57163140532519</v>
       </c>
       <c r="F8">
-        <v>64.27896615168174</v>
+        <v>15.85909316450147</v>
       </c>
       <c r="G8">
-        <v>2.090542559026558</v>
+        <v>19.17407224965121</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.61351820254552</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.690398952674663</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.31797478666999</v>
       </c>
       <c r="L8">
-        <v>12.93773956221014</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.70568305318708</v>
+        <v>15.66847431475743</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.97375278042856</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.23467804911118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.45298698004303</v>
+        <v>8.003985834490001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.94664155935184</v>
+        <v>4.880515519523961</v>
       </c>
       <c r="E9">
-        <v>21.72964886485121</v>
+        <v>15.3846246619966</v>
       </c>
       <c r="F9">
-        <v>72.59570396489927</v>
+        <v>17.14260449731856</v>
       </c>
       <c r="G9">
-        <v>2.030585052331374</v>
+        <v>21.03820071950554</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.645070546259632</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81881977260295</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.99452582499597</v>
       </c>
       <c r="L9">
-        <v>15.38874905268665</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>19.05616063375509</v>
+        <v>17.96305676350886</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.57028597917445</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.68380942863811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.58383859656961</v>
+        <v>8.644217896209527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.95638040584895</v>
+        <v>5.194403512720614</v>
       </c>
       <c r="E10">
-        <v>24.11950686256172</v>
+        <v>16.70862831476003</v>
       </c>
       <c r="F10">
-        <v>79.00264811988626</v>
+        <v>18.10492661478923</v>
       </c>
       <c r="G10">
-        <v>1.984442430243462</v>
+        <v>22.42867209308635</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.697424075160433</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.65782660831307</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.12084197680748</v>
       </c>
       <c r="L10">
-        <v>17.13277604692928</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>21.16454888815785</v>
+        <v>19.49474288971001</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.28816466455215</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.06679859663775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.62056905477285</v>
+        <v>8.95295433552638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.87991897017494</v>
+        <v>5.330744263300654</v>
       </c>
       <c r="E11">
-        <v>25.2178025814492</v>
+        <v>17.36356491186096</v>
       </c>
       <c r="F11">
-        <v>82.0298188524864</v>
+        <v>18.54528585472035</v>
       </c>
       <c r="G11">
-        <v>1.962447013375966</v>
+        <v>23.06346504352846</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.728122670586327</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.04927221007583</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.60979410030264</v>
       </c>
       <c r="L11">
-        <v>17.92649476990713</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.11885469739177</v>
+        <v>20.15864218503112</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.16283658865754</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.25272761034832</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.01418892193942</v>
+        <v>9.067389032460792</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.23302409233828</v>
+        <v>5.381432025599392</v>
       </c>
       <c r="E12">
-        <v>25.63779704984537</v>
+        <v>17.60795392548907</v>
       </c>
       <c r="F12">
-        <v>83.19859038727215</v>
+        <v>18.71229637029764</v>
       </c>
       <c r="G12">
-        <v>1.953906792726725</v>
+        <v>23.30401584626529</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.740781026938476</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.19986960458437</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.79155254370932</v>
       </c>
       <c r="L12">
-        <v>18.22863443518794</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.48115508538543</v>
+        <v>20.40537365159205</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.11580473839513</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.32482465689539</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.92934022776977</v>
+        <v>9.042853251589671</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.15678546715244</v>
+        <v>5.370557576917562</v>
       </c>
       <c r="E13">
-        <v>25.54711180746363</v>
+        <v>17.55548005486881</v>
       </c>
       <c r="F13">
-        <v>82.9457485651576</v>
+        <v>18.67631795871642</v>
       </c>
       <c r="G13">
-        <v>1.955756791918054</v>
+        <v>23.25220359713852</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.738008170991279</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.16731112843473</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.75255905467206</v>
       </c>
       <c r="L13">
-        <v>18.16346283850901</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.40305393701609</v>
+        <v>20.35244248617342</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.12591497450953</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.30922204540492</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.65292122754482</v>
+        <v>8.962418451123805</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.90888699123242</v>
+        <v>5.334933315887593</v>
       </c>
       <c r="E14">
-        <v>25.25225613667113</v>
+        <v>17.38374302586274</v>
       </c>
       <c r="F14">
-        <v>82.12547951678705</v>
+        <v>18.55902138770994</v>
       </c>
       <c r="G14">
-        <v>1.961749101344729</v>
+        <v>23.0832527130203</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.729143121031118</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.06160768835038</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.62481569120792</v>
       </c>
       <c r="L14">
-        <v>17.95130968960029</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>22.14863147556871</v>
+        <v>20.17903424040181</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.15895871935582</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.25862518657535</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.48379437567402</v>
+        <v>8.912827949757466</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.75755558248873</v>
+        <v>5.312989444852279</v>
       </c>
       <c r="E15">
-        <v>25.07227121594179</v>
+        <v>17.2780800754997</v>
       </c>
       <c r="F15">
-        <v>81.62619308469827</v>
+        <v>18.48720401613719</v>
       </c>
       <c r="G15">
-        <v>1.965389700067024</v>
+        <v>22.97978324044076</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.723848895461603</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.99720417944928</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.54612609374227</v>
       </c>
       <c r="L15">
-        <v>17.82161950850529</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>21.99296867071355</v>
+        <v>20.07220990092705</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.17925443873231</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.22785334383215</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.51613808116742</v>
+        <v>8.623693280239742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.8963710401804</v>
+        <v>5.18536227386859</v>
       </c>
       <c r="E16">
-        <v>24.04814823146649</v>
+        <v>16.66531539475308</v>
       </c>
       <c r="F16">
-        <v>78.80756186576073</v>
+        <v>18.07618991061845</v>
       </c>
       <c r="G16">
-        <v>1.985854484271755</v>
+        <v>22.38721828278226</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.695560102740971</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.63251548020798</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.08841379728281</v>
       </c>
       <c r="L16">
-        <v>17.08103043726583</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>21.10221193030497</v>
+        <v>19.45069847407274</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.29641522285456</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.0548838808535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.92261778410846</v>
+        <v>8.441880426633389</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.37168998878114</v>
+        <v>5.105404366334823</v>
       </c>
       <c r="E17">
-        <v>23.42424966607793</v>
+        <v>16.29649383084723</v>
       </c>
       <c r="F17">
-        <v>77.11099935476786</v>
+        <v>17.82462185197913</v>
       </c>
       <c r="G17">
-        <v>1.998110978787881</v>
+        <v>22.0241567386119</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.68000001840535</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.41187211881863</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.80159982073109</v>
       </c>
       <c r="L17">
-        <v>16.62772434839485</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20.55551815103357</v>
+        <v>19.06103780680754</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.36905633903913</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.95177657683016</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58084075744749</v>
+        <v>8.337254793914328</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.07062789987532</v>
+        <v>5.058808363308864</v>
       </c>
       <c r="E18">
-        <v>23.06625882804502</v>
+        <v>16.10565874797695</v>
       </c>
       <c r="F18">
-        <v>76.14529449850431</v>
+        <v>17.68017668947562</v>
       </c>
       <c r="G18">
-        <v>2.005071031539163</v>
+        <v>21.8155535717866</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.671695531776571</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.28581032020318</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.63442909003337</v>
       </c>
       <c r="L18">
-        <v>16.36691262399888</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>20.24049952977044</v>
+        <v>18.83381739135289</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.41112124251077</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.89357363385134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46501587872379</v>
+        <v>8.307457469253325</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.96876578883838</v>
+        <v>5.042928106434836</v>
       </c>
       <c r="E19">
-        <v>22.94513436661637</v>
+        <v>16.04084546682684</v>
       </c>
       <c r="F19">
-        <v>75.81990723788202</v>
+        <v>17.63131684350203</v>
       </c>
       <c r="G19">
-        <v>2.007413879927904</v>
+        <v>21.74496722196422</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.668993255299696</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24324960664133</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.57745071243565</v>
       </c>
       <c r="L19">
-        <v>16.27855372960567</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20.13370008646526</v>
+        <v>18.75635088161195</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.42541259757405</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.87405606742371</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.98583146994953</v>
+        <v>8.461404146522035</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.42745600366938</v>
+        <v>5.113978888128128</v>
       </c>
       <c r="E20">
-        <v>23.49056049914943</v>
+        <v>16.33171775200016</v>
       </c>
       <c r="F20">
-        <v>77.29051695214122</v>
+        <v>17.85137671576635</v>
       </c>
       <c r="G20">
-        <v>1.996815933664006</v>
+        <v>22.06278369882804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.681589314649625</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.43526654613063</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.8323599071147</v>
       </c>
       <c r="L20">
-        <v>16.6759786307018</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20.61376412811504</v>
+        <v>19.1028381054852</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.36129425429739</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.96263845005848</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.73406958228843</v>
+        <v>8.986111133974967</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.9815889945329</v>
+        <v>5.345422675404418</v>
       </c>
       <c r="E21">
-        <v>25.33872679701897</v>
+        <v>17.43428394851799</v>
       </c>
       <c r="F21">
-        <v>82.36574057449171</v>
+        <v>18.59346813189533</v>
       </c>
       <c r="G21">
-        <v>1.959995393101631</v>
+        <v>23.13287420493593</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.731718608149213</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.09258161457981</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.66242939261566</v>
       </c>
       <c r="L21">
-        <v>18.01356653650053</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.22332061173084</v>
+        <v>20.23009478988082</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.14924141959343</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.27344081494802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.88381741349752</v>
+        <v>9.314610643619702</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.0185821789466</v>
+        <v>5.491192195318881</v>
       </c>
       <c r="E22">
-        <v>26.57239889616442</v>
+        <v>18.13896812454778</v>
       </c>
       <c r="F22">
-        <v>85.81854803596033</v>
+        <v>19.07991831383607</v>
       </c>
       <c r="G22">
-        <v>1.934650057031465</v>
+        <v>23.83317168039707</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.770524606145133</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.53672225146982</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.18512075829909</v>
       </c>
       <c r="L22">
-        <v>18.89810769205868</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>23.28188529938664</v>
+        <v>20.93961665570414</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.01314034136665</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.48641839584105</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.26886846285988</v>
+        <v>9.140596206796801</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.46228106558382</v>
+        <v>5.413898721691111</v>
       </c>
       <c r="E23">
-        <v>25.91051369125046</v>
+        <v>17.76476290240277</v>
       </c>
       <c r="F23">
-        <v>83.96048681489606</v>
+        <v>18.8201920925336</v>
       </c>
       <c r="G23">
-        <v>1.948323506938414</v>
+        <v>23.45936820702032</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.749245859138229</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.29791854131724</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.90796988750657</v>
       </c>
       <c r="L23">
-        <v>18.42440095865927</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>22.71560112585352</v>
+        <v>20.56340071229327</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.08555414117203</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.37184556987331</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.95725439163233</v>
+        <v>8.452582726349695</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.40224251238264</v>
+        <v>5.110104299103247</v>
       </c>
       <c r="E24">
-        <v>23.46057937560743</v>
+        <v>16.31579693787209</v>
       </c>
       <c r="F24">
-        <v>77.20932735587603</v>
+        <v>17.83928025756572</v>
       </c>
       <c r="G24">
-        <v>1.99740168792188</v>
+        <v>22.04532004617225</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.680868799903227</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.42468753474996</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.81846036372555</v>
       </c>
       <c r="L24">
-        <v>16.65416359959361</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>20.5874334689172</v>
+        <v>19.08395015958684</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.36480254996763</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.95772444987131</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.72991360860517</v>
+        <v>7.77914112879736</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.20440732999097</v>
+        <v>4.759319217221961</v>
       </c>
       <c r="E25">
-        <v>20.84685481829878</v>
+        <v>14.9029960828286</v>
       </c>
       <c r="F25">
-        <v>70.30574538701183</v>
+        <v>16.79138786800849</v>
       </c>
       <c r="G25">
-        <v>2.047024676059255</v>
+        <v>20.52935843479611</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.631598570469751</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.5137711783981</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.55925828516249</v>
       </c>
       <c r="L25">
-        <v>14.73904883805073</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.26721749551652</v>
+        <v>17.36953903550056</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.67689069499817</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.55307878045616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.270294347196199</v>
+        <v>7.787217997188553</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.481846752498103</v>
+        <v>4.060893136428637</v>
       </c>
       <c r="E2">
-        <v>13.82768385038255</v>
+        <v>13.20799405628988</v>
       </c>
       <c r="F2">
-        <v>16.03352878207398</v>
+        <v>20.15661207283617</v>
       </c>
       <c r="G2">
-        <v>19.42822443439935</v>
+        <v>21.77006372168183</v>
       </c>
       <c r="H2">
-        <v>7.614707927906602</v>
+        <v>12.43018211106743</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.56153186098173</v>
+        <v>10.64280726498</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.00349211342168</v>
+        <v>12.85440798663801</v>
       </c>
       <c r="N2">
-        <v>11.91631693515441</v>
+        <v>17.86358411131111</v>
       </c>
       <c r="O2">
-        <v>12.29070464018912</v>
+        <v>17.99543016889661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.910334590374837</v>
+        <v>7.714374659171505</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.282307140145885</v>
+        <v>3.982170352681993</v>
       </c>
       <c r="E3">
-        <v>13.0797880334353</v>
+        <v>13.06334835640444</v>
       </c>
       <c r="F3">
-        <v>15.53137944129929</v>
+        <v>20.13270166463773</v>
       </c>
       <c r="G3">
-        <v>18.69576770548557</v>
+        <v>21.70534967497087</v>
       </c>
       <c r="H3">
-        <v>7.614492867740013</v>
+        <v>12.4643365330203</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.84268349624073</v>
+        <v>10.31498380857928</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.01244948874599</v>
+        <v>12.6090107184405</v>
       </c>
       <c r="N3">
-        <v>12.08474293732183</v>
+        <v>17.91829416268558</v>
       </c>
       <c r="O3">
-        <v>12.13457881137399</v>
+        <v>18.03233334819969</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.682600297681216</v>
+        <v>7.671135964444422</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.154329865932669</v>
+        <v>3.932372254637404</v>
       </c>
       <c r="E4">
-        <v>12.61243782662354</v>
+        <v>12.9786258501203</v>
       </c>
       <c r="F4">
-        <v>15.22977168722238</v>
+        <v>20.12391451323946</v>
       </c>
       <c r="G4">
-        <v>18.25451098560411</v>
+        <v>21.67382517052684</v>
       </c>
       <c r="H4">
-        <v>7.619610526729895</v>
+        <v>12.48740343930805</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.38089769726386</v>
+        <v>10.10654140856615</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.37169548608024</v>
+        <v>12.45871070603053</v>
       </c>
       <c r="N4">
-        <v>12.19124975149836</v>
+        <v>17.95363580648078</v>
       </c>
       <c r="O4">
-        <v>12.04917951564319</v>
+        <v>18.05930115476171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.588239562434324</v>
+        <v>7.653909753706696</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.100843604430385</v>
+        <v>3.911725813124971</v>
       </c>
       <c r="E5">
-        <v>12.42018636164356</v>
+        <v>12.9451706429843</v>
       </c>
       <c r="F5">
-        <v>15.10871846719006</v>
+        <v>20.12181902250849</v>
       </c>
       <c r="G5">
-        <v>18.07709472617609</v>
+        <v>21.66305259456006</v>
       </c>
       <c r="H5">
-        <v>7.622972774558113</v>
+        <v>12.49733009322655</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.18770604044624</v>
+        <v>10.01988045988559</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.10248243595474</v>
+        <v>12.39764256042835</v>
       </c>
       <c r="N5">
-        <v>12.2354371796163</v>
+        <v>17.96847883282249</v>
       </c>
       <c r="O5">
-        <v>12.01696717289534</v>
+        <v>18.07137192667942</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.572481252219981</v>
+        <v>7.651073712385926</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.091882895742758</v>
+        <v>3.908276580801455</v>
       </c>
       <c r="E6">
-        <v>12.3881623004801</v>
+        <v>12.93968120511576</v>
       </c>
       <c r="F6">
-        <v>15.08873454026839</v>
+        <v>20.1215608470428</v>
       </c>
       <c r="G6">
-        <v>18.04778780614514</v>
+        <v>21.6613892895046</v>
       </c>
       <c r="H6">
-        <v>7.62360691659894</v>
+        <v>12.49901020761226</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.15532816861913</v>
+        <v>10.00538916448124</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.05729114846937</v>
+        <v>12.38751567023416</v>
       </c>
       <c r="N6">
-        <v>12.24282210136101</v>
+        <v>17.97097017520829</v>
       </c>
       <c r="O6">
-        <v>12.0117732781174</v>
+        <v>18.07344149377884</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.681333830996465</v>
+        <v>7.67090202508406</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.153613879570671</v>
+        <v>3.932095220610515</v>
       </c>
       <c r="E7">
-        <v>12.60985199869913</v>
+        <v>12.97817027692089</v>
       </c>
       <c r="F7">
-        <v>15.22813139258137</v>
+        <v>20.12388023534945</v>
       </c>
       <c r="G7">
-        <v>18.2521082118866</v>
+        <v>21.67367148050949</v>
       </c>
       <c r="H7">
-        <v>7.619650758974533</v>
+        <v>12.48753518151254</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.37831235363636</v>
+        <v>10.10537951641961</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.36809755998649</v>
+        <v>12.45788627495738</v>
       </c>
       <c r="N7">
-        <v>12.19184249012142</v>
+        <v>17.95383419758197</v>
       </c>
       <c r="O7">
-        <v>12.04873466984568</v>
+        <v>18.05945957117327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.147647374444333</v>
+        <v>7.761805050149243</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.414199573030538</v>
+        <v>4.034061313761114</v>
       </c>
       <c r="E8">
-        <v>13.57163140532519</v>
+        <v>13.15729680622191</v>
       </c>
       <c r="F8">
-        <v>15.85909316450147</v>
+        <v>20.14714685568606</v>
       </c>
       <c r="G8">
-        <v>19.17407224965121</v>
+        <v>21.74605287961489</v>
       </c>
       <c r="H8">
-        <v>7.61351820254552</v>
+        <v>12.4415233423642</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.31797478666999</v>
+        <v>10.53130542276325</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.66847431475743</v>
+        <v>12.76976841411508</v>
       </c>
       <c r="N8">
-        <v>11.97375278042856</v>
+        <v>17.88208570464177</v>
       </c>
       <c r="O8">
-        <v>12.23467804911118</v>
+        <v>18.00725867938297</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.003985834490001</v>
+        <v>7.95096134100243</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.880515519523961</v>
+        <v>4.221826639691846</v>
       </c>
       <c r="E9">
-        <v>15.3846246619966</v>
+        <v>13.53908268893657</v>
       </c>
       <c r="F9">
-        <v>17.14260449731856</v>
+        <v>20.23933218766745</v>
       </c>
       <c r="G9">
-        <v>21.03820071950554</v>
+        <v>21.95257575815238</v>
       </c>
       <c r="H9">
-        <v>7.645070546259632</v>
+        <v>12.36793942349507</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.99452582499597</v>
+        <v>11.30658346900733</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.96305676350886</v>
+        <v>13.38064248040476</v>
       </c>
       <c r="N9">
-        <v>11.57028597917445</v>
+        <v>17.75521754504648</v>
       </c>
       <c r="O9">
-        <v>12.68380942863811</v>
+        <v>17.93917901459272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.644217896209527</v>
+        <v>8.095326893460918</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.194403512720614</v>
+        <v>4.351613293197904</v>
       </c>
       <c r="E10">
-        <v>16.70862831476003</v>
+        <v>13.83545052939753</v>
       </c>
       <c r="F10">
-        <v>18.10492661478923</v>
+        <v>20.33507721625972</v>
       </c>
       <c r="G10">
-        <v>22.42867209308635</v>
+        <v>22.14271835082421</v>
       </c>
       <c r="H10">
-        <v>7.697424075160433</v>
+        <v>12.32404384199839</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.12084197680748</v>
+        <v>11.83588863876779</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.49474288971001</v>
+        <v>13.8242161237803</v>
       </c>
       <c r="N10">
-        <v>11.28816466455215</v>
+        <v>17.67036762634267</v>
       </c>
       <c r="O10">
-        <v>13.06679859663775</v>
+        <v>17.91017564407907</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.95295433552638</v>
+        <v>8.161901133953082</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.330744263300654</v>
+        <v>4.40874432500953</v>
       </c>
       <c r="E11">
-        <v>17.36356491186096</v>
+        <v>13.97311196271167</v>
       </c>
       <c r="F11">
-        <v>18.54528585472035</v>
+        <v>20.38460964311158</v>
       </c>
       <c r="G11">
-        <v>23.06346504352846</v>
+        <v>22.23729246676171</v>
       </c>
       <c r="H11">
-        <v>7.728122670586327</v>
+        <v>12.3062857763092</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.60979410030264</v>
+        <v>12.0672784324167</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.15864218503112</v>
+        <v>14.02391787625523</v>
       </c>
       <c r="N11">
-        <v>11.16283658865754</v>
+        <v>17.63356749561506</v>
       </c>
       <c r="O11">
-        <v>13.25272761034832</v>
+        <v>17.90156180530126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.067389032460792</v>
+        <v>8.187217759333207</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.381432025599392</v>
+        <v>4.430093115426159</v>
       </c>
       <c r="E12">
-        <v>17.60795392548907</v>
+        <v>14.02559746443209</v>
       </c>
       <c r="F12">
-        <v>18.71229637029764</v>
+        <v>20.40421450016228</v>
       </c>
       <c r="G12">
-        <v>23.30401584626529</v>
+        <v>22.27424003910117</v>
       </c>
       <c r="H12">
-        <v>7.740781026938476</v>
+        <v>12.29987934806285</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.79155254370932</v>
+        <v>12.15350219556858</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.40537365159205</v>
+        <v>14.09916573846776</v>
       </c>
       <c r="N12">
-        <v>11.11580473839513</v>
+        <v>17.61988977043013</v>
       </c>
       <c r="O12">
-        <v>13.32482465689539</v>
+        <v>17.89895935672618</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.042853251589671</v>
+        <v>8.181761007750547</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.370557576917562</v>
+        <v>4.425508133945309</v>
       </c>
       <c r="E13">
-        <v>17.55548005486881</v>
+        <v>14.01427877295551</v>
       </c>
       <c r="F13">
-        <v>18.67631795871642</v>
+        <v>20.39995472682632</v>
       </c>
       <c r="G13">
-        <v>23.25220359713852</v>
+        <v>22.26623272406581</v>
       </c>
       <c r="H13">
-        <v>7.738008170991279</v>
+        <v>12.30124493156282</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.75255905467206</v>
+        <v>12.13499526599669</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.35244248617342</v>
+        <v>14.08297759418605</v>
       </c>
       <c r="N13">
-        <v>11.12591497450953</v>
+        <v>17.62282406742208</v>
       </c>
       <c r="O13">
-        <v>13.30922204540492</v>
+        <v>17.89949050320486</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.962418451123805</v>
+        <v>8.163981948248225</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.334933315887593</v>
+        <v>4.410506484161057</v>
       </c>
       <c r="E14">
-        <v>17.38374302586274</v>
+        <v>13.97742314124148</v>
       </c>
       <c r="F14">
-        <v>18.55902138770994</v>
+        <v>20.38620562232783</v>
       </c>
       <c r="G14">
-        <v>23.0832527130203</v>
+        <v>22.24030959494007</v>
       </c>
       <c r="H14">
-        <v>7.729143121031118</v>
+        <v>12.30575233729877</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.62481569120792</v>
+        <v>12.07440039540143</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.17903424040181</v>
+        <v>14.030116493343</v>
       </c>
       <c r="N14">
-        <v>11.15895871935582</v>
+        <v>17.63243706185154</v>
       </c>
       <c r="O14">
-        <v>13.25862518657535</v>
+        <v>17.90133448098816</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.912827949757466</v>
+        <v>8.153104929682831</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.312989444852279</v>
+        <v>4.401280051019747</v>
       </c>
       <c r="E15">
-        <v>17.2780800754997</v>
+        <v>13.95489281513539</v>
       </c>
       <c r="F15">
-        <v>18.48720401613719</v>
+        <v>20.37789396737011</v>
       </c>
       <c r="G15">
-        <v>22.97978324044076</v>
+        <v>22.22457781477013</v>
       </c>
       <c r="H15">
-        <v>7.723848895461603</v>
+        <v>12.30855469734615</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.54612609374227</v>
+        <v>12.03710083705679</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.07220990092705</v>
+        <v>13.99768655639185</v>
       </c>
       <c r="N15">
-        <v>11.17925443873231</v>
+        <v>17.63835882918245</v>
       </c>
       <c r="O15">
-        <v>13.22785334383215</v>
+        <v>17.90254986559115</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.623693280239742</v>
+        <v>8.09099226437427</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.18536227386859</v>
+        <v>4.347840271028377</v>
       </c>
       <c r="E16">
-        <v>16.66531539475308</v>
+        <v>13.82650673054911</v>
       </c>
       <c r="F16">
-        <v>18.07618991061845</v>
+        <v>20.33195948202943</v>
       </c>
       <c r="G16">
-        <v>22.38721828278226</v>
+        <v>22.1366979890109</v>
       </c>
       <c r="H16">
-        <v>7.695560102740971</v>
+        <v>12.32524887867687</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.08841379728281</v>
+        <v>11.82057353675828</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.45069847407274</v>
+        <v>13.81111670377152</v>
       </c>
       <c r="N16">
-        <v>11.29641522285456</v>
+        <v>17.67280871159539</v>
       </c>
       <c r="O16">
-        <v>13.0548838808535</v>
+        <v>17.9108308188268</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.441880426633389</v>
+        <v>8.053102525249603</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.105404366334823</v>
+        <v>4.314559607467458</v>
       </c>
       <c r="E17">
-        <v>16.29649383084723</v>
+        <v>13.74843662365704</v>
       </c>
       <c r="F17">
-        <v>17.82462185197913</v>
+        <v>20.30530336455144</v>
       </c>
       <c r="G17">
-        <v>22.0241567386119</v>
+        <v>22.08483690784952</v>
       </c>
       <c r="H17">
-        <v>7.68000001840535</v>
+        <v>12.33605656615687</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.80159982073109</v>
+        <v>11.68529931959532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.06103780680754</v>
+        <v>13.69607388666395</v>
       </c>
       <c r="N17">
-        <v>11.36905633903913</v>
+        <v>17.69440256952928</v>
       </c>
       <c r="O17">
-        <v>12.95177657683016</v>
+        <v>17.91708466171456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.337254793914328</v>
+        <v>8.03139560576215</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.058808363308864</v>
+        <v>4.295238313737851</v>
       </c>
       <c r="E18">
-        <v>16.10565874797695</v>
+        <v>13.70380345844987</v>
       </c>
       <c r="F18">
-        <v>17.68017668947562</v>
+        <v>20.29053488483981</v>
       </c>
       <c r="G18">
-        <v>21.8155535717866</v>
+        <v>22.05576985326861</v>
       </c>
       <c r="H18">
-        <v>7.671695531776571</v>
+        <v>12.34248088394853</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.63442909003337</v>
+        <v>11.60661145776712</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.83381739135289</v>
+        <v>13.62971258315733</v>
       </c>
       <c r="N18">
-        <v>11.41112124251077</v>
+        <v>17.70699212606759</v>
       </c>
       <c r="O18">
-        <v>12.89357363385134</v>
+        <v>17.92111276598528</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.307457469253325</v>
+        <v>8.024061539815314</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.042928106434836</v>
+        <v>4.28866603376473</v>
       </c>
       <c r="E19">
-        <v>16.04084546682684</v>
+        <v>13.68873952764592</v>
       </c>
       <c r="F19">
-        <v>17.63131684350203</v>
+        <v>20.28563162801953</v>
       </c>
       <c r="G19">
-        <v>21.74496722196422</v>
+        <v>22.04605991657665</v>
       </c>
       <c r="H19">
-        <v>7.668993255299696</v>
+        <v>12.34469176477261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.57745071243565</v>
+        <v>11.57981921212431</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.75635088161195</v>
+        <v>13.60721322413681</v>
       </c>
       <c r="N19">
-        <v>11.42541259757405</v>
+        <v>17.71128384691889</v>
       </c>
       <c r="O19">
-        <v>12.87405606742371</v>
+        <v>17.92255061611791</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.461404146522035</v>
+        <v>8.057127194111255</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.113978888128128</v>
+        <v>4.318121012271003</v>
       </c>
       <c r="E20">
-        <v>16.33171775200016</v>
+        <v>13.75671968446406</v>
       </c>
       <c r="F20">
-        <v>17.85137671576635</v>
+        <v>20.30808272190703</v>
       </c>
       <c r="G20">
-        <v>22.06278369882804</v>
+        <v>22.09027892533739</v>
       </c>
       <c r="H20">
-        <v>7.681589314649625</v>
+        <v>12.33488453735966</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.8323599071147</v>
+        <v>11.69979110809977</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.1028381054852</v>
+        <v>13.70834079258761</v>
       </c>
       <c r="N20">
-        <v>11.36129425429739</v>
+        <v>17.69208634722786</v>
       </c>
       <c r="O20">
-        <v>12.96263845005848</v>
+        <v>17.91637430918687</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.986111133974967</v>
+        <v>8.169201385969489</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.345422675404418</v>
+        <v>4.414920663474791</v>
       </c>
       <c r="E21">
-        <v>17.43428394851799</v>
+        <v>13.98823928870123</v>
       </c>
       <c r="F21">
-        <v>18.59346813189533</v>
+        <v>20.39022115194433</v>
       </c>
       <c r="G21">
-        <v>23.13287420493593</v>
+        <v>22.24789328759816</v>
       </c>
       <c r="H21">
-        <v>7.731718608149213</v>
+        <v>12.30441976555901</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.66242939261566</v>
+        <v>12.09223688603605</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.23009478988082</v>
+        <v>14.04565383435875</v>
       </c>
       <c r="N21">
-        <v>11.14924141959343</v>
+        <v>17.62960650625685</v>
       </c>
       <c r="O21">
-        <v>13.27344081494802</v>
+        <v>17.90077495862216</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.314610643619702</v>
+        <v>8.243057873433564</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.491192195318881</v>
+        <v>4.476516261964663</v>
       </c>
       <c r="E22">
-        <v>18.13896812454778</v>
+        <v>14.14160201413161</v>
       </c>
       <c r="F22">
-        <v>19.07991831383607</v>
+        <v>20.44883985682452</v>
       </c>
       <c r="G22">
-        <v>23.83317168039707</v>
+        <v>22.35750123131694</v>
       </c>
       <c r="H22">
-        <v>7.770524606145133</v>
+        <v>12.28636391944075</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.18512075829909</v>
+        <v>12.34055289917988</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.93961665570414</v>
+        <v>14.26389041001222</v>
       </c>
       <c r="N22">
-        <v>11.01314034136665</v>
+        <v>17.59027388332768</v>
       </c>
       <c r="O22">
-        <v>13.48641839584105</v>
+        <v>17.89442363457563</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.140596206796801</v>
+        <v>8.203591153482806</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.413898721691111</v>
+        <v>4.443797605031003</v>
       </c>
       <c r="E23">
-        <v>17.76476290240277</v>
+        <v>14.05957912845909</v>
       </c>
       <c r="F23">
-        <v>18.8201920925336</v>
+        <v>20.41710642960971</v>
       </c>
       <c r="G23">
-        <v>23.45936820702032</v>
+        <v>22.29840731419723</v>
       </c>
       <c r="H23">
-        <v>7.749245859138229</v>
+        <v>12.29583086330886</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.90796988750657</v>
+        <v>12.20878386578556</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.56340071229327</v>
+        <v>14.14764014720974</v>
       </c>
       <c r="N23">
-        <v>11.08555414117203</v>
+        <v>17.61112935729214</v>
       </c>
       <c r="O23">
-        <v>13.37184556987331</v>
+        <v>17.89746157431969</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.452582726349695</v>
+        <v>8.055307401589864</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.110104299103247</v>
+        <v>4.316511485269761</v>
       </c>
       <c r="E24">
-        <v>16.31579693787209</v>
+        <v>13.75297412876998</v>
       </c>
       <c r="F24">
-        <v>17.83928025756572</v>
+        <v>20.30682444019621</v>
       </c>
       <c r="G24">
-        <v>22.04532004617225</v>
+        <v>22.08781625544923</v>
       </c>
       <c r="H24">
-        <v>7.680868799903227</v>
+        <v>12.33541375486012</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.81846036372555</v>
+        <v>11.69324222285372</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.08395015958684</v>
+        <v>13.70279560903291</v>
       </c>
       <c r="N24">
-        <v>11.36480254996763</v>
+        <v>17.69313296626285</v>
       </c>
       <c r="O24">
-        <v>12.95772444987131</v>
+        <v>17.91669411183094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.77914112879736</v>
+        <v>7.898750654859183</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.759319217221961</v>
+        <v>4.172414915369404</v>
       </c>
       <c r="E25">
-        <v>14.9029960828286</v>
+        <v>13.43280849394993</v>
       </c>
       <c r="F25">
-        <v>16.79138786800849</v>
+        <v>20.20944135069506</v>
       </c>
       <c r="G25">
-        <v>20.52935843479611</v>
+        <v>21.8898791025117</v>
       </c>
       <c r="H25">
-        <v>7.631598570469751</v>
+        <v>12.38606174879678</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.55925828516249</v>
+        <v>11.10368203571238</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.36953903550056</v>
+        <v>13.21596853567002</v>
       </c>
       <c r="N25">
-        <v>11.67689069499817</v>
+        <v>17.78806553172516</v>
       </c>
       <c r="O25">
-        <v>12.55307878045616</v>
+        <v>17.95391281063233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.787217997188553</v>
+        <v>7.270294347196166</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.060893136428637</v>
+        <v>4.481846752498067</v>
       </c>
       <c r="E2">
-        <v>13.20799405628988</v>
+        <v>13.8276838503826</v>
       </c>
       <c r="F2">
-        <v>20.15661207283617</v>
+        <v>16.03352878207393</v>
       </c>
       <c r="G2">
-        <v>21.77006372168183</v>
+        <v>19.42822443439933</v>
       </c>
       <c r="H2">
-        <v>12.43018211106743</v>
+        <v>7.614707927906496</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.64280726498</v>
+        <v>14.56153186098182</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.85440798663801</v>
+        <v>16.0034921134217</v>
       </c>
       <c r="N2">
-        <v>17.86358411131111</v>
+        <v>11.91631693515441</v>
       </c>
       <c r="O2">
-        <v>17.99543016889661</v>
+        <v>12.29070464018906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.714374659171505</v>
+        <v>6.91033459037487</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.982170352681993</v>
+        <v>4.28230714014593</v>
       </c>
       <c r="E3">
-        <v>13.06334835640444</v>
+        <v>13.07978803343531</v>
       </c>
       <c r="F3">
-        <v>20.13270166463773</v>
+        <v>15.53137944129926</v>
       </c>
       <c r="G3">
-        <v>21.70534967497087</v>
+        <v>18.69576770548543</v>
       </c>
       <c r="H3">
-        <v>12.4643365330203</v>
+        <v>7.614492867740011</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.31498380857928</v>
+        <v>13.84268349624073</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.6090107184405</v>
+        <v>15.01244948874597</v>
       </c>
       <c r="N3">
-        <v>17.91829416268558</v>
+        <v>12.08474293732183</v>
       </c>
       <c r="O3">
-        <v>18.03233334819969</v>
+        <v>12.13457881137397</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.671135964444422</v>
+        <v>6.682600297681224</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.932372254637404</v>
+        <v>4.154329865932622</v>
       </c>
       <c r="E4">
-        <v>12.9786258501203</v>
+        <v>12.61243782662354</v>
       </c>
       <c r="F4">
-        <v>20.12391451323946</v>
+        <v>15.22977168722233</v>
       </c>
       <c r="G4">
-        <v>21.67382517052684</v>
+        <v>18.25451098560403</v>
       </c>
       <c r="H4">
-        <v>12.48740343930805</v>
+        <v>7.619610526729895</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.10654140856615</v>
+        <v>13.3808976972639</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.45871070603053</v>
+        <v>14.37169548608024</v>
       </c>
       <c r="N4">
-        <v>17.95363580648078</v>
+        <v>12.19124975149836</v>
       </c>
       <c r="O4">
-        <v>18.05930115476171</v>
+        <v>12.04917951564313</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.653909753706696</v>
+        <v>6.588239562434353</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.911725813124971</v>
+        <v>4.100843604430448</v>
       </c>
       <c r="E5">
-        <v>12.9451706429843</v>
+        <v>12.42018636164361</v>
       </c>
       <c r="F5">
-        <v>20.12181902250849</v>
+        <v>15.10871846718988</v>
       </c>
       <c r="G5">
-        <v>21.66305259456006</v>
+        <v>18.07709472617584</v>
       </c>
       <c r="H5">
-        <v>12.49733009322655</v>
+        <v>7.622972774558062</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.01988045988559</v>
+        <v>13.18770604044638</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.39764256042835</v>
+        <v>14.10248243595475</v>
       </c>
       <c r="N5">
-        <v>17.96847883282249</v>
+        <v>12.23543717961626</v>
       </c>
       <c r="O5">
-        <v>18.07137192667942</v>
+        <v>12.0169671728952</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.651073712385926</v>
+        <v>6.57248125222001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.908276580801455</v>
+        <v>4.091882895742811</v>
       </c>
       <c r="E6">
-        <v>12.93968120511576</v>
+        <v>12.38816230048012</v>
       </c>
       <c r="F6">
-        <v>20.1215608470428</v>
+        <v>15.08873454026827</v>
       </c>
       <c r="G6">
-        <v>21.6613892895046</v>
+        <v>18.04778780614501</v>
       </c>
       <c r="H6">
-        <v>12.49901020761226</v>
+        <v>7.623606916598942</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.00538916448124</v>
+        <v>13.15532816861917</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.38751567023416</v>
+        <v>14.0572911484694</v>
       </c>
       <c r="N6">
-        <v>17.97097017520829</v>
+        <v>12.24282210136101</v>
       </c>
       <c r="O6">
-        <v>18.07344149377884</v>
+        <v>12.01177327811733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.67090202508406</v>
+        <v>6.681333830996457</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.932095220610515</v>
+        <v>4.153613879570767</v>
       </c>
       <c r="E7">
-        <v>12.97817027692089</v>
+        <v>12.60985199869918</v>
       </c>
       <c r="F7">
-        <v>20.12388023534945</v>
+        <v>15.22813139258117</v>
       </c>
       <c r="G7">
-        <v>21.67367148050949</v>
+        <v>18.25210821188646</v>
       </c>
       <c r="H7">
-        <v>12.48753518151254</v>
+        <v>7.619650758974475</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.10537951641961</v>
+        <v>13.37831235363639</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.45788627495738</v>
+        <v>14.36809755998652</v>
       </c>
       <c r="N7">
-        <v>17.95383419758197</v>
+        <v>12.19184249012139</v>
       </c>
       <c r="O7">
-        <v>18.05945957117327</v>
+        <v>12.04873466984555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.761805050149243</v>
+        <v>7.147647374444337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.034061313761114</v>
+        <v>4.414199573030531</v>
       </c>
       <c r="E8">
-        <v>13.15729680622191</v>
+        <v>13.57163140532519</v>
       </c>
       <c r="F8">
-        <v>20.14714685568606</v>
+        <v>15.85909316450137</v>
       </c>
       <c r="G8">
-        <v>21.74605287961489</v>
+        <v>19.17407224965112</v>
       </c>
       <c r="H8">
-        <v>12.4415233423642</v>
+        <v>7.613518202545406</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.53130542276325</v>
+        <v>14.31797478667002</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.76976841411508</v>
+        <v>15.66847431475744</v>
       </c>
       <c r="N8">
-        <v>17.88208570464177</v>
+        <v>11.97375278042853</v>
       </c>
       <c r="O8">
-        <v>18.00725867938297</v>
+        <v>12.2346780491111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.95096134100243</v>
+        <v>8.003985834489983</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.221826639691846</v>
+        <v>4.880515519523932</v>
       </c>
       <c r="E9">
-        <v>13.53908268893657</v>
+        <v>15.38462466199661</v>
       </c>
       <c r="F9">
-        <v>20.23933218766745</v>
+        <v>17.1426044973185</v>
       </c>
       <c r="G9">
-        <v>21.95257575815238</v>
+        <v>21.03820071950546</v>
       </c>
       <c r="H9">
-        <v>12.36793942349507</v>
+        <v>7.645070546259583</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.30658346900733</v>
+        <v>15.99452582499604</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.38064248040476</v>
+        <v>17.96305676350891</v>
       </c>
       <c r="N9">
-        <v>17.75521754504648</v>
+        <v>11.57028597917445</v>
       </c>
       <c r="O9">
-        <v>17.93917901459272</v>
+        <v>12.68380942863802</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.095326893460918</v>
+        <v>8.644217896209527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.351613293197904</v>
+        <v>5.1944035127207</v>
       </c>
       <c r="E10">
-        <v>13.83545052939753</v>
+        <v>16.70862831476003</v>
       </c>
       <c r="F10">
-        <v>20.33507721625972</v>
+        <v>18.10492661478921</v>
       </c>
       <c r="G10">
-        <v>22.14271835082421</v>
+        <v>22.42867209308635</v>
       </c>
       <c r="H10">
-        <v>12.32404384199839</v>
+        <v>7.697424075160438</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.83588863876779</v>
+        <v>17.12084197680748</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.8242161237803</v>
+        <v>19.49474288971002</v>
       </c>
       <c r="N10">
-        <v>17.67036762634267</v>
+        <v>11.28816466455215</v>
       </c>
       <c r="O10">
-        <v>17.91017564407907</v>
+        <v>13.06679859663775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.161901133953082</v>
+        <v>8.95295433552638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.40874432500953</v>
+        <v>5.330744263300608</v>
       </c>
       <c r="E11">
-        <v>13.97311196271167</v>
+        <v>17.36356491186095</v>
       </c>
       <c r="F11">
-        <v>20.38460964311158</v>
+        <v>18.54528585472032</v>
       </c>
       <c r="G11">
-        <v>22.23729246676171</v>
+        <v>23.0634650435284</v>
       </c>
       <c r="H11">
-        <v>12.3062857763092</v>
+        <v>7.728122670586226</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.0672784324167</v>
+        <v>17.60979410030261</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.02391787625523</v>
+        <v>20.1586421850311</v>
       </c>
       <c r="N11">
-        <v>17.63356749561506</v>
+        <v>11.16283658865751</v>
       </c>
       <c r="O11">
-        <v>17.90156180530126</v>
+        <v>13.25272761034828</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.187217759333207</v>
+        <v>9.067389032460829</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.430093115426159</v>
+        <v>5.381432025599399</v>
       </c>
       <c r="E12">
-        <v>14.02559746443209</v>
+        <v>17.60795392548908</v>
       </c>
       <c r="F12">
-        <v>20.40421450016228</v>
+        <v>18.71229637029759</v>
       </c>
       <c r="G12">
-        <v>22.27424003910117</v>
+        <v>23.30401584626528</v>
       </c>
       <c r="H12">
-        <v>12.29987934806285</v>
+        <v>7.740781026938431</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.15350219556858</v>
+        <v>17.79155254370936</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.09916573846776</v>
+        <v>20.40537365159208</v>
       </c>
       <c r="N12">
-        <v>17.61988977043013</v>
+        <v>11.11580473839503</v>
       </c>
       <c r="O12">
-        <v>17.89895935672618</v>
+        <v>13.3248246568953</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.181761007750547</v>
+        <v>9.042853251589662</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.425508133945309</v>
+        <v>5.370557576917448</v>
       </c>
       <c r="E13">
-        <v>14.01427877295551</v>
+        <v>17.55548005486882</v>
       </c>
       <c r="F13">
-        <v>20.39995472682632</v>
+        <v>18.67631795871638</v>
       </c>
       <c r="G13">
-        <v>22.26623272406581</v>
+        <v>23.2522035971385</v>
       </c>
       <c r="H13">
-        <v>12.30124493156282</v>
+        <v>7.738008170991183</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.13499526599669</v>
+        <v>17.75255905467212</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.08297759418605</v>
+        <v>20.35244248617344</v>
       </c>
       <c r="N13">
-        <v>17.62282406742208</v>
+        <v>11.1259149745095</v>
       </c>
       <c r="O13">
-        <v>17.89949050320486</v>
+        <v>13.30922204540485</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.163981948248225</v>
+        <v>8.962418451123815</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.410506484161057</v>
+        <v>5.334933315887715</v>
       </c>
       <c r="E14">
-        <v>13.97742314124148</v>
+        <v>17.38374302586272</v>
       </c>
       <c r="F14">
-        <v>20.38620562232783</v>
+        <v>18.55902138770989</v>
       </c>
       <c r="G14">
-        <v>22.24030959494007</v>
+        <v>23.08325271302029</v>
       </c>
       <c r="H14">
-        <v>12.30575233729877</v>
+        <v>7.729143121031099</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.07440039540143</v>
+        <v>17.62481569120797</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.030116493343</v>
+        <v>20.17903424040183</v>
       </c>
       <c r="N14">
-        <v>17.63243706185154</v>
+        <v>11.15895871935582</v>
       </c>
       <c r="O14">
-        <v>17.90133448098816</v>
+        <v>13.25862518657531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.153104929682831</v>
+        <v>8.912827949757428</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.401280051019747</v>
+        <v>5.312989444852287</v>
       </c>
       <c r="E15">
-        <v>13.95489281513539</v>
+        <v>17.2780800754997</v>
       </c>
       <c r="F15">
-        <v>20.37789396737011</v>
+        <v>18.4872040161371</v>
       </c>
       <c r="G15">
-        <v>22.22457781477013</v>
+        <v>22.97978324044071</v>
       </c>
       <c r="H15">
-        <v>12.30855469734615</v>
+        <v>7.723848895461469</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.03710083705679</v>
+        <v>17.54612609374236</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.99768655639185</v>
+        <v>20.07220990092709</v>
       </c>
       <c r="N15">
-        <v>17.63835882918245</v>
+        <v>11.17925443873225</v>
       </c>
       <c r="O15">
-        <v>17.90254986559115</v>
+        <v>13.22785334383204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.09099226437427</v>
+        <v>8.623693280239726</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.347840271028377</v>
+        <v>5.185362273868622</v>
       </c>
       <c r="E16">
-        <v>13.82650673054911</v>
+        <v>16.66531539475306</v>
       </c>
       <c r="F16">
-        <v>20.33195948202943</v>
+        <v>18.07618991061838</v>
       </c>
       <c r="G16">
-        <v>22.1366979890109</v>
+        <v>22.38721828278216</v>
       </c>
       <c r="H16">
-        <v>12.32524887867687</v>
+        <v>7.695560102740882</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.82057353675828</v>
+        <v>17.08841379728287</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.81111670377152</v>
+        <v>19.45069847407276</v>
       </c>
       <c r="N16">
-        <v>17.67280871159539</v>
+        <v>11.2964152228545</v>
       </c>
       <c r="O16">
-        <v>17.9108308188268</v>
+        <v>13.0548838808534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.053102525249603</v>
+        <v>8.441880426633434</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.314559607467458</v>
+        <v>5.10540436633477</v>
       </c>
       <c r="E17">
-        <v>13.74843662365704</v>
+        <v>16.29649383084723</v>
       </c>
       <c r="F17">
-        <v>20.30530336455144</v>
+        <v>17.82462185197912</v>
       </c>
       <c r="G17">
-        <v>22.08483690784952</v>
+        <v>22.02415673861186</v>
       </c>
       <c r="H17">
-        <v>12.33605656615687</v>
+        <v>7.680000018405318</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.68529931959532</v>
+        <v>16.80159982073117</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.69607388666395</v>
+        <v>19.0610378068076</v>
       </c>
       <c r="N17">
-        <v>17.69440256952928</v>
+        <v>11.36905633903919</v>
       </c>
       <c r="O17">
-        <v>17.91708466171456</v>
+        <v>12.95177657683012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.03139560576215</v>
+        <v>8.337254793914308</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.295238313737851</v>
+        <v>5.058808363308795</v>
       </c>
       <c r="E18">
-        <v>13.70380345844987</v>
+        <v>16.10565874797696</v>
       </c>
       <c r="F18">
-        <v>20.29053488483981</v>
+        <v>17.68017668947557</v>
       </c>
       <c r="G18">
-        <v>22.05576985326861</v>
+        <v>21.81555357178655</v>
       </c>
       <c r="H18">
-        <v>12.34248088394853</v>
+        <v>7.671695531776486</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.60661145776712</v>
+        <v>16.63442909003349</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.62971258315733</v>
+        <v>18.83381739135297</v>
       </c>
       <c r="N18">
-        <v>17.70699212606759</v>
+        <v>11.41112124251074</v>
       </c>
       <c r="O18">
-        <v>17.92111276598528</v>
+        <v>12.8935736338512</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024061539815314</v>
+        <v>8.307457469253334</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.28866603376473</v>
+        <v>5.042928106434787</v>
       </c>
       <c r="E19">
-        <v>13.68873952764592</v>
+        <v>16.04084546682684</v>
       </c>
       <c r="F19">
-        <v>20.28563162801953</v>
+        <v>17.63131684350199</v>
       </c>
       <c r="G19">
-        <v>22.04605991657665</v>
+        <v>21.74496722196418</v>
       </c>
       <c r="H19">
-        <v>12.34469176477261</v>
+        <v>7.668993255299658</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.57981921212431</v>
+        <v>16.57745071243571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.60721322413681</v>
+        <v>18.75635088161195</v>
       </c>
       <c r="N19">
-        <v>17.71128384691889</v>
+        <v>11.42541259757405</v>
       </c>
       <c r="O19">
-        <v>17.92255061611791</v>
+        <v>12.87405606742367</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.057127194111255</v>
+        <v>8.46140414652205</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.318121012271003</v>
+        <v>5.113978888128128</v>
       </c>
       <c r="E20">
-        <v>13.75671968446406</v>
+        <v>16.33171775200019</v>
       </c>
       <c r="F20">
-        <v>20.30808272190703</v>
+        <v>17.85137671576626</v>
       </c>
       <c r="G20">
-        <v>22.09027892533739</v>
+        <v>22.06278369882794</v>
       </c>
       <c r="H20">
-        <v>12.33488453735966</v>
+        <v>7.681589314649577</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.69979110809977</v>
+        <v>16.83235990711476</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.70834079258761</v>
+        <v>19.10283810548526</v>
       </c>
       <c r="N20">
-        <v>17.69208634722786</v>
+        <v>11.36129425429739</v>
       </c>
       <c r="O20">
-        <v>17.91637430918687</v>
+        <v>12.96263845005838</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.169201385969489</v>
+        <v>8.986111133974937</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.414920663474791</v>
+        <v>5.345422675404432</v>
       </c>
       <c r="E21">
-        <v>13.98823928870123</v>
+        <v>17.43428394851801</v>
       </c>
       <c r="F21">
-        <v>20.39022115194433</v>
+        <v>18.59346813189535</v>
       </c>
       <c r="G21">
-        <v>22.24789328759816</v>
+        <v>23.13287420493593</v>
       </c>
       <c r="H21">
-        <v>12.30441976555901</v>
+        <v>7.731718608149206</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.09223688603605</v>
+        <v>17.66242939261567</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.04565383435875</v>
+        <v>20.23009478988083</v>
       </c>
       <c r="N21">
-        <v>17.62960650625685</v>
+        <v>11.14924141959347</v>
       </c>
       <c r="O21">
-        <v>17.90077495862216</v>
+        <v>13.27344081494805</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.243057873433564</v>
+        <v>9.314610643619698</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.476516261964663</v>
+        <v>5.491192195318851</v>
       </c>
       <c r="E22">
-        <v>14.14160201413161</v>
+        <v>18.13896812454783</v>
       </c>
       <c r="F22">
-        <v>20.44883985682452</v>
+        <v>19.07991831383607</v>
       </c>
       <c r="G22">
-        <v>22.35750123131694</v>
+        <v>23.83317168039703</v>
       </c>
       <c r="H22">
-        <v>12.28636391944075</v>
+        <v>7.77052460614511</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.34055289917988</v>
+        <v>18.18512075829913</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.26389041001222</v>
+        <v>20.93961665570419</v>
       </c>
       <c r="N22">
-        <v>17.59027388332768</v>
+        <v>11.01314034136665</v>
       </c>
       <c r="O22">
-        <v>17.89442363457563</v>
+        <v>13.48641839584101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.203591153482806</v>
+        <v>9.140596206796872</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.443797605031003</v>
+        <v>5.41389872169121</v>
       </c>
       <c r="E23">
-        <v>14.05957912845909</v>
+        <v>17.76476290240281</v>
       </c>
       <c r="F23">
-        <v>20.41710642960971</v>
+        <v>18.82019209253354</v>
       </c>
       <c r="G23">
-        <v>22.29840731419723</v>
+        <v>23.45936820702026</v>
       </c>
       <c r="H23">
-        <v>12.29583086330886</v>
+        <v>7.749245859138193</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.20878386578556</v>
+        <v>17.90796988750657</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.14764014720974</v>
+        <v>20.5634007122933</v>
       </c>
       <c r="N23">
-        <v>17.61112935729214</v>
+        <v>11.085554141172</v>
       </c>
       <c r="O23">
-        <v>17.89746157431969</v>
+        <v>13.37184556987327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.055307401589864</v>
+        <v>8.45258272634968</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.316511485269761</v>
+        <v>5.110104299103201</v>
       </c>
       <c r="E24">
-        <v>13.75297412876998</v>
+        <v>16.31579693787209</v>
       </c>
       <c r="F24">
-        <v>20.30682444019621</v>
+        <v>17.83928025756568</v>
       </c>
       <c r="G24">
-        <v>22.08781625544923</v>
+        <v>22.04532004617217</v>
       </c>
       <c r="H24">
-        <v>12.33541375486012</v>
+        <v>7.680868799903186</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.69324222285372</v>
+        <v>16.81846036372557</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.70279560903291</v>
+        <v>19.08395015958686</v>
       </c>
       <c r="N24">
-        <v>17.69313296626285</v>
+        <v>11.36480254996756</v>
       </c>
       <c r="O24">
-        <v>17.91669411183094</v>
+        <v>12.95772444987124</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.898750654859183</v>
+        <v>7.77914112879739</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.172414915369404</v>
+        <v>4.759319217222056</v>
       </c>
       <c r="E25">
-        <v>13.43280849394993</v>
+        <v>14.90299608282861</v>
       </c>
       <c r="F25">
-        <v>20.20944135069506</v>
+        <v>16.79138786800838</v>
       </c>
       <c r="G25">
-        <v>21.8898791025117</v>
+        <v>20.52935843479606</v>
       </c>
       <c r="H25">
-        <v>12.38606174879678</v>
+        <v>7.631598570469665</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.10368203571238</v>
+        <v>15.55925828516257</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.21596853567002</v>
+        <v>17.3695390355006</v>
       </c>
       <c r="N25">
-        <v>17.78806553172516</v>
+        <v>11.67689069499813</v>
       </c>
       <c r="O25">
-        <v>17.95391281063233</v>
+        <v>12.55307878045606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.270294347196166</v>
+        <v>19.99262005490072</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.481846752498067</v>
+        <v>8.324383037445385</v>
       </c>
       <c r="E2">
-        <v>13.8276838503826</v>
+        <v>16.44256552109696</v>
       </c>
       <c r="F2">
-        <v>16.03352878207393</v>
+        <v>26.6331279767191</v>
       </c>
       <c r="G2">
-        <v>19.42822443439933</v>
+        <v>40.74146812833101</v>
       </c>
       <c r="H2">
-        <v>7.614707927906496</v>
+        <v>2.437918944999001</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.327294758602342</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.07933592614176</v>
       </c>
       <c r="K2">
-        <v>14.56153186098182</v>
+        <v>15.79667315282991</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.29685892192915</v>
       </c>
       <c r="M2">
-        <v>16.0034921134217</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.91631693515441</v>
+        <v>13.26121936433921</v>
       </c>
       <c r="O2">
-        <v>12.29070464018906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.98852438355066</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.91033459037487</v>
+        <v>18.73179537137389</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.28230714014593</v>
+        <v>7.951956162927896</v>
       </c>
       <c r="E3">
-        <v>13.07978803343531</v>
+        <v>15.63737572504306</v>
       </c>
       <c r="F3">
-        <v>15.53137944129926</v>
+        <v>25.87794090267081</v>
       </c>
       <c r="G3">
-        <v>18.69576770548543</v>
+        <v>38.69862214499668</v>
       </c>
       <c r="H3">
-        <v>7.614492867740011</v>
+        <v>2.737103263140966</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.497893292927618</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.79984371572972</v>
       </c>
       <c r="K3">
-        <v>13.84268349624073</v>
+        <v>16.19168705768752</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.891902012201758</v>
       </c>
       <c r="M3">
-        <v>15.01244948874597</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.08474293732183</v>
+        <v>12.47010771788079</v>
       </c>
       <c r="O3">
-        <v>12.13457881137397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.02488176166091</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.682600297681224</v>
+        <v>17.91235574950688</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.154329865932622</v>
+        <v>7.716187931594322</v>
       </c>
       <c r="E4">
-        <v>12.61243782662354</v>
+        <v>15.12538447707725</v>
       </c>
       <c r="F4">
-        <v>15.22977168722233</v>
+        <v>25.42326406837138</v>
       </c>
       <c r="G4">
-        <v>18.25451098560403</v>
+        <v>37.42339324093555</v>
       </c>
       <c r="H4">
-        <v>7.619610526729895</v>
+        <v>2.92580463754111</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.605879338901856</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.63352699068108</v>
       </c>
       <c r="K4">
-        <v>13.3808976972639</v>
+        <v>16.43923450303567</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.636121349040582</v>
       </c>
       <c r="M4">
-        <v>14.37169548608024</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.19124975149836</v>
+        <v>11.96307270609361</v>
       </c>
       <c r="O4">
-        <v>12.04917951564313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.40544286361884</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.588239562434353</v>
+        <v>17.56584841188217</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.100843604430448</v>
+        <v>7.620007550796469</v>
       </c>
       <c r="E5">
-        <v>12.42018636164361</v>
+        <v>14.91985838423484</v>
       </c>
       <c r="F5">
-        <v>15.10871846718988</v>
+        <v>25.22412199324215</v>
       </c>
       <c r="G5">
-        <v>18.07709472617584</v>
+        <v>36.87413414737345</v>
       </c>
       <c r="H5">
-        <v>7.622972774558062</v>
+        <v>3.004076547962323</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.652916344424815</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.56195004487769</v>
       </c>
       <c r="K5">
-        <v>13.18770604044638</v>
+        <v>16.53958329723663</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.534138300367918</v>
       </c>
       <c r="M5">
-        <v>14.10248243595475</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.23543717961626</v>
+        <v>11.76050984601469</v>
       </c>
       <c r="O5">
-        <v>12.0169671728952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.15120715193546</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57248125222001</v>
+        <v>17.50612957866756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.091882895742811</v>
+        <v>7.6059559544622</v>
       </c>
       <c r="E6">
-        <v>12.38816230048012</v>
+        <v>14.89461219729397</v>
       </c>
       <c r="F6">
-        <v>15.08873454026827</v>
+        <v>25.1713152260781</v>
       </c>
       <c r="G6">
-        <v>18.04778780614501</v>
+        <v>36.75212215815134</v>
       </c>
       <c r="H6">
-        <v>7.623606916598942</v>
+        <v>3.017242023208192</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.663581664760047</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.54383827235184</v>
       </c>
       <c r="K6">
-        <v>13.15532816861917</v>
+        <v>16.55417821525635</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.521994005283036</v>
       </c>
       <c r="M6">
-        <v>14.0572911484694</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.24282210136101</v>
+        <v>11.7379603084539</v>
       </c>
       <c r="O6">
-        <v>12.01177327811733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.11473277820618</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.681333830996457</v>
+        <v>17.90372038459748</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.153613879570767</v>
+        <v>7.720362208732285</v>
       </c>
       <c r="E7">
-        <v>12.60985199869918</v>
+        <v>15.1472251878363</v>
       </c>
       <c r="F7">
-        <v>15.22813139258117</v>
+        <v>25.36681345956591</v>
       </c>
       <c r="G7">
-        <v>18.25210821188646</v>
+        <v>37.33411620815843</v>
       </c>
       <c r="H7">
-        <v>7.619650758974475</v>
+        <v>2.927073401177693</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.613907400511595</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.61547859270279</v>
       </c>
       <c r="K7">
-        <v>13.37831235363639</v>
+        <v>16.43490778209717</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.647993831481633</v>
       </c>
       <c r="M7">
-        <v>14.36809755998652</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.19184249012139</v>
+        <v>11.99078427787306</v>
       </c>
       <c r="O7">
-        <v>12.04873466984555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.41846000611195</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.147647374444337</v>
+        <v>19.5623409639734</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.414199573030531</v>
+        <v>8.204392542906094</v>
       </c>
       <c r="E8">
-        <v>13.57163140532519</v>
+        <v>16.19954342521587</v>
       </c>
       <c r="F8">
-        <v>15.85909316450137</v>
+        <v>26.30254369254437</v>
       </c>
       <c r="G8">
-        <v>19.17407224965112</v>
+        <v>39.94039196956518</v>
       </c>
       <c r="H8">
-        <v>7.613518202545406</v>
+        <v>2.540247903768583</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.394736993330663</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.96003179948627</v>
       </c>
       <c r="K8">
-        <v>14.31797478667002</v>
+        <v>15.92551789620059</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.17569608256376</v>
       </c>
       <c r="M8">
-        <v>15.66847431475744</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.97375278042853</v>
+        <v>13.03015533142381</v>
       </c>
       <c r="O8">
-        <v>12.2346780491111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.6822291404119</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.003985834489983</v>
+        <v>22.46162693314563</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.880515519523932</v>
+        <v>9.087386553565766</v>
       </c>
       <c r="E9">
-        <v>15.38462466199661</v>
+        <v>18.08042209500527</v>
       </c>
       <c r="F9">
-        <v>17.1426044973185</v>
+        <v>28.29467930472288</v>
       </c>
       <c r="G9">
-        <v>21.03820071950546</v>
+        <v>44.99659666348782</v>
       </c>
       <c r="H9">
-        <v>7.645070546259583</v>
+        <v>1.819113615730974</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.977739977092377</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.70583671853706</v>
       </c>
       <c r="K9">
-        <v>15.99452582499604</v>
+        <v>14.97262235898195</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.12953632772093</v>
       </c>
       <c r="M9">
-        <v>17.96305676350891</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.57028597917445</v>
+        <v>14.85458668107541</v>
       </c>
       <c r="O9">
-        <v>12.68380942863802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.90931414227754</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.644217896209527</v>
+        <v>24.37878872325326</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.1944035127207</v>
+        <v>9.732362936548125</v>
       </c>
       <c r="E10">
-        <v>16.70862831476003</v>
+        <v>19.50859079995434</v>
       </c>
       <c r="F10">
-        <v>18.10492661478921</v>
+        <v>29.51111940901958</v>
       </c>
       <c r="G10">
-        <v>22.42867209308635</v>
+        <v>48.17715734455367</v>
       </c>
       <c r="H10">
-        <v>7.697424075160438</v>
+        <v>1.801897520884553</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.693675014974113</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.18674685514144</v>
       </c>
       <c r="K10">
-        <v>17.12084197680748</v>
+        <v>14.29140921931408</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.87114822553639</v>
       </c>
       <c r="M10">
-        <v>19.49474288971002</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28816466455215</v>
+        <v>16.12198667394896</v>
       </c>
       <c r="O10">
-        <v>13.06679859663775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.3830395505055</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.95295433552638</v>
+        <v>25.26208365691215</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.330744263300608</v>
+        <v>10.27730263689291</v>
       </c>
       <c r="E11">
-        <v>17.36356491186095</v>
+        <v>21.26412638043089</v>
       </c>
       <c r="F11">
-        <v>18.54528585472032</v>
+        <v>27.77734281953968</v>
       </c>
       <c r="G11">
-        <v>23.0634650435284</v>
+        <v>46.370927678756</v>
       </c>
       <c r="H11">
-        <v>7.728122670586226</v>
+        <v>2.822732671538334</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.613878966370077</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.66724036310305</v>
       </c>
       <c r="K11">
-        <v>17.60979410030261</v>
+        <v>14.20568002607331</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.86763255306455</v>
       </c>
       <c r="M11">
-        <v>20.1586421850311</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.16283658865751</v>
+        <v>16.25196993449486</v>
       </c>
       <c r="O11">
-        <v>13.25272761034828</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>20.80143346130128</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.067389032460829</v>
+        <v>25.62245265607194</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.381432025599399</v>
+        <v>10.6057187736164</v>
       </c>
       <c r="E12">
-        <v>17.60795392548908</v>
+        <v>22.46711292295182</v>
       </c>
       <c r="F12">
-        <v>18.71229637029759</v>
+        <v>26.09091380570283</v>
       </c>
       <c r="G12">
-        <v>23.30401584626528</v>
+        <v>44.24657172629966</v>
       </c>
       <c r="H12">
-        <v>7.740781026938431</v>
+        <v>4.133871848518769</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.588096426747589</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.13625249014006</v>
       </c>
       <c r="K12">
-        <v>17.79155254370936</v>
+        <v>14.53398079173289</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.57528983796963</v>
       </c>
       <c r="M12">
-        <v>20.40537365159208</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.11580473839503</v>
+        <v>16.06514748707822</v>
       </c>
       <c r="O12">
-        <v>13.3248246568953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>20.8273726060266</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.042853251589662</v>
+        <v>25.60968181906913</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.370557576917448</v>
+        <v>10.80042220042095</v>
       </c>
       <c r="E13">
-        <v>17.55548005486882</v>
+        <v>23.37325324006124</v>
       </c>
       <c r="F13">
-        <v>18.67631795871638</v>
+        <v>24.22295978079391</v>
       </c>
       <c r="G13">
-        <v>23.2522035971385</v>
+        <v>41.56004333290448</v>
       </c>
       <c r="H13">
-        <v>7.738008170991183</v>
+        <v>5.472248399777368</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.614987309370051</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.52777537378767</v>
       </c>
       <c r="K13">
-        <v>17.75255905467212</v>
+        <v>15.14968443622788</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.13029006628411</v>
       </c>
       <c r="M13">
-        <v>20.35244248617344</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.1259149745095</v>
+        <v>15.65142842932669</v>
       </c>
       <c r="O13">
-        <v>13.30922204540485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>20.57380793547109</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.962418451123815</v>
+        <v>25.43095451838922</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.334933315887715</v>
+        <v>10.88070105531376</v>
       </c>
       <c r="E14">
-        <v>17.38374302586272</v>
+        <v>23.89409133683634</v>
       </c>
       <c r="F14">
-        <v>18.55902138770989</v>
+        <v>22.80465884068023</v>
       </c>
       <c r="G14">
-        <v>23.08325271302029</v>
+        <v>39.36441941900112</v>
       </c>
       <c r="H14">
-        <v>7.729143121031099</v>
+        <v>6.453491782009925</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.659806634131156</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.05818743172131</v>
       </c>
       <c r="K14">
-        <v>17.62481569120797</v>
+        <v>15.72161720583401</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.4615334369727</v>
       </c>
       <c r="M14">
-        <v>20.17903424040183</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.15895871935582</v>
+        <v>15.25997669528786</v>
       </c>
       <c r="O14">
-        <v>13.25862518657531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>20.27000204990868</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.912827949757428</v>
+        <v>25.30575718855989</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.312989444852287</v>
+        <v>10.87309616258652</v>
       </c>
       <c r="E15">
-        <v>17.2780800754997</v>
+        <v>23.96380557059479</v>
       </c>
       <c r="F15">
-        <v>18.4872040161371</v>
+        <v>22.40494924744414</v>
       </c>
       <c r="G15">
-        <v>22.97978324044071</v>
+        <v>38.67750947734821</v>
       </c>
       <c r="H15">
-        <v>7.723848895461469</v>
+        <v>6.69414141689041</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.686089835056813</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.92263464479386</v>
       </c>
       <c r="K15">
-        <v>17.54612609374236</v>
+        <v>15.89661383914652</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.51191767944368</v>
       </c>
       <c r="M15">
-        <v>20.07220990092709</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.17925443873225</v>
+        <v>15.12346943120193</v>
       </c>
       <c r="O15">
-        <v>13.22785334383204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>20.14091598065398</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.623693280239726</v>
+        <v>24.52622962759419</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.185362273868622</v>
+        <v>10.5795714162919</v>
       </c>
       <c r="E16">
-        <v>16.66531539475306</v>
+        <v>23.26565080339909</v>
       </c>
       <c r="F16">
-        <v>18.07618991061838</v>
+        <v>22.13052194589698</v>
       </c>
       <c r="G16">
-        <v>22.38721828278216</v>
+        <v>37.58723933706646</v>
       </c>
       <c r="H16">
-        <v>7.695560102740882</v>
+        <v>6.50106796255555</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.808391439309097</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.79964114469225</v>
       </c>
       <c r="K16">
-        <v>17.08841379728287</v>
+        <v>15.99453545565754</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.12755694112192</v>
       </c>
       <c r="M16">
-        <v>19.45069847407276</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.2964152228545</v>
+        <v>14.66922969259538</v>
       </c>
       <c r="O16">
-        <v>13.0548838808534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>19.58007359955551</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.441880426633434</v>
+        <v>24.01409290458394</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.10540436633477</v>
+        <v>10.30578368509659</v>
       </c>
       <c r="E17">
-        <v>16.29649383084723</v>
+        <v>22.42682470007806</v>
       </c>
       <c r="F17">
-        <v>17.82462185197912</v>
+        <v>22.70157951790286</v>
       </c>
       <c r="G17">
-        <v>22.02415673861186</v>
+        <v>37.98354938717516</v>
       </c>
       <c r="H17">
-        <v>7.680000018405318</v>
+        <v>5.776899171124289</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.878785947341119</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.96356197829023</v>
       </c>
       <c r="K17">
-        <v>16.80159982073117</v>
+        <v>15.76691582914138</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.64238946503449</v>
       </c>
       <c r="M17">
-        <v>19.0610378068076</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.36905633903919</v>
+        <v>14.53412124473495</v>
       </c>
       <c r="O17">
-        <v>12.95177657683012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>19.31130980871279</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.337254793914308</v>
+        <v>23.68727403962624</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.058808363308795</v>
+        <v>10.01851638641114</v>
       </c>
       <c r="E18">
-        <v>16.10565874797696</v>
+        <v>21.37169082030984</v>
       </c>
       <c r="F18">
-        <v>17.68017668947557</v>
+        <v>24.08834071106255</v>
       </c>
       <c r="G18">
-        <v>21.81555357178655</v>
+        <v>39.75400105535822</v>
       </c>
       <c r="H18">
-        <v>7.671695531776486</v>
+        <v>4.536011597693492</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.902250436003491</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.39916357275589</v>
       </c>
       <c r="K18">
-        <v>16.63442909003349</v>
+        <v>15.30821215310348</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.01858995675923</v>
       </c>
       <c r="M18">
-        <v>18.83381739135297</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.41112124251074</v>
+        <v>14.64527811883901</v>
       </c>
       <c r="O18">
-        <v>12.8935736338512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>19.25704549596736</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.307457469253334</v>
+        <v>23.53190042936437</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.042928106434787</v>
+        <v>9.759685094258373</v>
       </c>
       <c r="E19">
-        <v>16.04084546682684</v>
+        <v>20.30385026261966</v>
       </c>
       <c r="F19">
-        <v>17.63131684350199</v>
+        <v>25.92049620300452</v>
       </c>
       <c r="G19">
-        <v>21.74496722196418</v>
+        <v>42.32838100469069</v>
       </c>
       <c r="H19">
-        <v>7.668993255299658</v>
+        <v>3.060250865226334</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.898249075752847</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.98539969671709</v>
       </c>
       <c r="K19">
-        <v>16.57745071243571</v>
+        <v>14.88718845335011</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.38405830704097</v>
       </c>
       <c r="M19">
-        <v>18.75635088161195</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.42541259757405</v>
+        <v>14.98780572044516</v>
       </c>
       <c r="O19">
-        <v>12.87405606742367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>19.4011341432477</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.46140414652205</v>
+        <v>23.88053698820816</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.113978888128128</v>
+        <v>9.581437720509584</v>
       </c>
       <c r="E20">
-        <v>16.33171775200019</v>
+        <v>19.2103181126253</v>
       </c>
       <c r="F20">
-        <v>17.85137671576626</v>
+        <v>29.03281821107708</v>
       </c>
       <c r="G20">
-        <v>22.06278369882794</v>
+        <v>47.13046858274564</v>
       </c>
       <c r="H20">
-        <v>7.681589314649577</v>
+        <v>1.671937957417242</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.791661526850588</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.00819986896736</v>
       </c>
       <c r="K20">
-        <v>16.83235990711476</v>
+        <v>14.46428766398064</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.71933833597285</v>
       </c>
       <c r="M20">
-        <v>19.10283810548526</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.36129425429739</v>
+        <v>15.86522075043326</v>
       </c>
       <c r="O20">
-        <v>12.96263845005838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.04413389979947</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.986111133974937</v>
+        <v>25.273849276706</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.345422675404432</v>
+        <v>10.0173536194417</v>
       </c>
       <c r="E21">
-        <v>17.43428394851801</v>
+        <v>20.06950510995582</v>
       </c>
       <c r="F21">
-        <v>18.59346813189535</v>
+        <v>30.41292176280223</v>
       </c>
       <c r="G21">
-        <v>23.13287420493593</v>
+        <v>50.14919147250995</v>
       </c>
       <c r="H21">
-        <v>7.731718608149206</v>
+        <v>2.053379340163239</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.566449394037571</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.52547538431587</v>
       </c>
       <c r="K21">
-        <v>17.66242939261567</v>
+        <v>13.94980414980661</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.15527785305677</v>
       </c>
       <c r="M21">
-        <v>20.23009478988083</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.14924141959347</v>
+        <v>16.86187974913595</v>
       </c>
       <c r="O21">
-        <v>13.27344081494805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.16184122918893</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.314610643619698</v>
+        <v>26.15287683746644</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.491192195318851</v>
+        <v>10.30553263208624</v>
       </c>
       <c r="E22">
-        <v>18.13896812454783</v>
+        <v>20.65498437323874</v>
       </c>
       <c r="F22">
-        <v>19.07991831383607</v>
+        <v>31.24257690336801</v>
       </c>
       <c r="G22">
-        <v>23.83317168039703</v>
+        <v>51.98127810749234</v>
       </c>
       <c r="H22">
-        <v>7.77052460614511</v>
+        <v>2.297038811714543</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.41352115602824</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.84299857020246</v>
       </c>
       <c r="K22">
-        <v>18.18512075829913</v>
+        <v>13.61865861070186</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.45636210299264</v>
       </c>
       <c r="M22">
-        <v>20.93961665570419</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.01314034136665</v>
+        <v>17.43691954270469</v>
       </c>
       <c r="O22">
-        <v>13.48641839584101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.8369017464385</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.140596206796872</v>
+        <v>25.69086019438627</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.41389872169121</v>
+        <v>10.14698972367256</v>
       </c>
       <c r="E23">
-        <v>17.76476290240281</v>
+        <v>20.32088471844337</v>
       </c>
       <c r="F23">
-        <v>18.82019209253354</v>
+        <v>30.85114231271737</v>
       </c>
       <c r="G23">
-        <v>23.45936820702026</v>
+        <v>51.07714378603755</v>
       </c>
       <c r="H23">
-        <v>7.749245859138193</v>
+        <v>2.167089856737749</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.485440519573888</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.69003560338881</v>
       </c>
       <c r="K23">
-        <v>17.90796988750657</v>
+        <v>13.79664177605066</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.28299352122295</v>
       </c>
       <c r="M23">
-        <v>20.5634007122933</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.085554141172</v>
+        <v>17.10706802713872</v>
       </c>
       <c r="O23">
-        <v>13.37184556987327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.46486647765467</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.45258272634968</v>
+        <v>23.85684735871709</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.110104299103201</v>
+        <v>9.542749569949923</v>
       </c>
       <c r="E24">
-        <v>16.31579693787209</v>
+        <v>19.05938229036377</v>
       </c>
       <c r="F24">
-        <v>17.83928025756568</v>
+        <v>29.30020623864404</v>
       </c>
       <c r="G24">
-        <v>22.04532004617217</v>
+        <v>47.49170829499199</v>
       </c>
       <c r="H24">
-        <v>7.680868799903186</v>
+        <v>1.670238982789</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.777181982205792</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.09343653632815</v>
       </c>
       <c r="K24">
-        <v>16.81846036372557</v>
+        <v>14.47455729186028</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.63301760599234</v>
       </c>
       <c r="M24">
-        <v>19.08395015958686</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.36480254996756</v>
+        <v>15.85047479732604</v>
       </c>
       <c r="O24">
-        <v>12.95772444987124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.02451781790374</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.77914112879739</v>
+        <v>21.70960113602934</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.759319217222056</v>
+        <v>8.863568729866399</v>
       </c>
       <c r="E25">
-        <v>14.90299608282861</v>
+        <v>17.62632850321254</v>
       </c>
       <c r="F25">
-        <v>16.79138786800838</v>
+        <v>27.66138917948863</v>
       </c>
       <c r="G25">
-        <v>20.52935843479606</v>
+        <v>43.52540007512356</v>
       </c>
       <c r="H25">
-        <v>7.631598570469665</v>
+        <v>2.010539579159949</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.101137067002278</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.47148604785007</v>
       </c>
       <c r="K25">
-        <v>15.55925828516257</v>
+        <v>15.22062127136661</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.90002788419615</v>
       </c>
       <c r="M25">
-        <v>17.3695390355006</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67689069499813</v>
+        <v>14.4209607014929</v>
       </c>
       <c r="O25">
-        <v>12.55307878045606</v>
+        <v>18.35633147357145</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.99262005490072</v>
+        <v>19.95321177403009</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.324383037445385</v>
+        <v>8.110008708257963</v>
       </c>
       <c r="E2">
-        <v>16.44256552109696</v>
+        <v>15.99369178318882</v>
       </c>
       <c r="F2">
-        <v>26.6331279767191</v>
+        <v>26.86686325830413</v>
       </c>
       <c r="G2">
-        <v>40.74146812833101</v>
+        <v>40.73187100500971</v>
       </c>
       <c r="H2">
-        <v>2.437918944999001</v>
+        <v>2.29416586531878</v>
       </c>
       <c r="I2">
-        <v>4.327294758602342</v>
+        <v>4.012903995530346</v>
       </c>
       <c r="J2">
-        <v>12.07933592614176</v>
+        <v>12.69451443186208</v>
       </c>
       <c r="K2">
-        <v>15.79667315282991</v>
+        <v>15.11158888542075</v>
       </c>
       <c r="L2">
-        <v>10.29685892192915</v>
+        <v>11.42414097642439</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.80546074081156</v>
       </c>
       <c r="N2">
-        <v>13.26121936433921</v>
+        <v>10.03130543105985</v>
       </c>
       <c r="O2">
-        <v>16.98852438355066</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13.2488864463453</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.95581763680212</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.73179537137389</v>
+        <v>18.67930078828068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.951956162927896</v>
+        <v>7.743723554683866</v>
       </c>
       <c r="E3">
-        <v>15.63737572504306</v>
+        <v>15.17040495647487</v>
       </c>
       <c r="F3">
-        <v>25.87794090267081</v>
+        <v>26.12256906018137</v>
       </c>
       <c r="G3">
-        <v>38.69862214499668</v>
+        <v>38.72186026090977</v>
       </c>
       <c r="H3">
-        <v>2.737103263140966</v>
+        <v>2.572405714519614</v>
       </c>
       <c r="I3">
-        <v>4.497893292927618</v>
+        <v>4.158936070545256</v>
       </c>
       <c r="J3">
-        <v>11.79984371572972</v>
+        <v>12.38394554801724</v>
       </c>
       <c r="K3">
-        <v>16.19168705768752</v>
+        <v>15.46360926860366</v>
       </c>
       <c r="L3">
-        <v>9.891902012201758</v>
+        <v>11.62138810427954</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.17909851374326</v>
       </c>
       <c r="N3">
-        <v>12.47010771788079</v>
+        <v>9.613858053807844</v>
       </c>
       <c r="O3">
-        <v>16.02488176166091</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>12.44658840061554</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.97411471931398</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.91235574950688</v>
+        <v>17.84986550588813</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.716187931594322</v>
+        <v>7.511817650417268</v>
       </c>
       <c r="E4">
-        <v>15.12538447707725</v>
+        <v>14.64656041907594</v>
       </c>
       <c r="F4">
-        <v>25.42326406837138</v>
+        <v>25.67028413495248</v>
       </c>
       <c r="G4">
-        <v>37.42339324093555</v>
+        <v>37.46836002414636</v>
       </c>
       <c r="H4">
-        <v>2.92580463754111</v>
+        <v>2.74798055844199</v>
       </c>
       <c r="I4">
-        <v>4.605879338901856</v>
+        <v>4.251650522805932</v>
       </c>
       <c r="J4">
-        <v>11.63352699068108</v>
+        <v>12.19242315359403</v>
       </c>
       <c r="K4">
-        <v>16.43923450303567</v>
+        <v>15.68491110698262</v>
       </c>
       <c r="L4">
-        <v>9.636121349040582</v>
+        <v>11.75505021177817</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.41618721549762</v>
       </c>
       <c r="N4">
-        <v>11.96307270609361</v>
+        <v>9.35024585462449</v>
       </c>
       <c r="O4">
-        <v>15.40544286361884</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.93283494611943</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.34232243056236</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.56584841188217</v>
+        <v>17.49892769798267</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.620007550796469</v>
+        <v>7.417059555648484</v>
       </c>
       <c r="E5">
-        <v>14.91985838423484</v>
+        <v>14.43507785136452</v>
       </c>
       <c r="F5">
-        <v>25.22412199324215</v>
+        <v>25.4733208757844</v>
       </c>
       <c r="G5">
-        <v>36.87413414737345</v>
+        <v>36.93181519725737</v>
       </c>
       <c r="H5">
-        <v>3.004076547962323</v>
+        <v>2.820858333623418</v>
       </c>
       <c r="I5">
-        <v>4.652916344424815</v>
+        <v>4.292851271054759</v>
       </c>
       <c r="J5">
-        <v>11.56195004487769</v>
+        <v>12.10987151111898</v>
       </c>
       <c r="K5">
-        <v>16.53958329723663</v>
+        <v>15.77410971682265</v>
       </c>
       <c r="L5">
-        <v>9.534138300367918</v>
+        <v>11.8082138907561</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.51552537323659</v>
       </c>
       <c r="N5">
-        <v>11.76050984601469</v>
+        <v>9.244504925589334</v>
       </c>
       <c r="O5">
-        <v>15.15120715193546</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11.72613804980829</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.08200507433858</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.50612957866756</v>
+        <v>17.43864854704738</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.6059559544622</v>
+        <v>7.403011957693552</v>
       </c>
       <c r="E6">
-        <v>14.89461219729397</v>
+        <v>14.40763413477482</v>
       </c>
       <c r="F6">
-        <v>25.1713152260781</v>
+        <v>25.42362903580923</v>
       </c>
       <c r="G6">
-        <v>36.75212215815134</v>
+        <v>36.81626372986565</v>
       </c>
       <c r="H6">
-        <v>3.017242023208192</v>
+        <v>2.833157959985478</v>
       </c>
       <c r="I6">
-        <v>4.663581664760047</v>
+        <v>4.303118969835916</v>
       </c>
       <c r="J6">
-        <v>11.54383827235184</v>
+        <v>12.09083246717524</v>
       </c>
       <c r="K6">
-        <v>16.55417821525635</v>
+        <v>15.78626146258056</v>
       </c>
       <c r="L6">
-        <v>9.521994005283036</v>
+        <v>11.81194782530567</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.53309059756675</v>
       </c>
       <c r="N6">
-        <v>11.7379603084539</v>
+        <v>9.2310614004138</v>
       </c>
       <c r="O6">
-        <v>15.11473277820618</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>11.70110434409606</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.04359995734639</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.90372038459748</v>
+        <v>17.84276290576834</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.720362208732285</v>
+        <v>7.506324867059247</v>
       </c>
       <c r="E7">
-        <v>15.1472251878363</v>
+        <v>14.65404059997409</v>
       </c>
       <c r="F7">
-        <v>25.36681345956591</v>
+        <v>25.58922771322133</v>
       </c>
       <c r="G7">
-        <v>37.33411620815843</v>
+        <v>37.45753098721261</v>
       </c>
       <c r="H7">
-        <v>2.927073401177693</v>
+        <v>2.750347514630943</v>
       </c>
       <c r="I7">
-        <v>4.613907400511595</v>
+        <v>4.261561037102759</v>
       </c>
       <c r="J7">
-        <v>11.61547859270279</v>
+        <v>12.1082430637947</v>
       </c>
       <c r="K7">
-        <v>16.43490778209717</v>
+        <v>15.67789458199245</v>
       </c>
       <c r="L7">
-        <v>9.647993831481633</v>
+        <v>11.73964016487761</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.4206727950973</v>
       </c>
       <c r="N7">
-        <v>11.99078427787306</v>
+        <v>9.356929529088767</v>
       </c>
       <c r="O7">
-        <v>15.41846000611195</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11.94915088410223</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.34945527278452</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.5623409639734</v>
+        <v>19.5226055534517</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.204392542906094</v>
+        <v>7.962622285362412</v>
       </c>
       <c r="E8">
-        <v>16.19954342521587</v>
+        <v>15.70585100696562</v>
       </c>
       <c r="F8">
-        <v>26.30254369254437</v>
+        <v>26.44718473537618</v>
       </c>
       <c r="G8">
-        <v>39.94039196956518</v>
+        <v>40.16514171196457</v>
       </c>
       <c r="H8">
-        <v>2.540247903768583</v>
+        <v>2.392846244355104</v>
       </c>
       <c r="I8">
-        <v>4.394736993330663</v>
+        <v>4.075269571096498</v>
       </c>
       <c r="J8">
-        <v>11.96003179948627</v>
+        <v>12.34792065022934</v>
       </c>
       <c r="K8">
-        <v>15.92551789620059</v>
+        <v>15.2220309480807</v>
       </c>
       <c r="L8">
-        <v>10.17569608256376</v>
+        <v>11.47075699365862</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.93616140102856</v>
       </c>
       <c r="N8">
-        <v>13.03015533142381</v>
+        <v>9.893062003578326</v>
       </c>
       <c r="O8">
-        <v>16.6822291404119</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>12.98783490525748</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.63000321801805</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.46162693314563</v>
+        <v>22.44439388342537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.087386553565766</v>
+        <v>8.825669919565406</v>
       </c>
       <c r="E9">
-        <v>18.08042209500527</v>
+        <v>17.62432803809855</v>
       </c>
       <c r="F9">
-        <v>28.29467930472288</v>
+        <v>28.35999205762418</v>
       </c>
       <c r="G9">
-        <v>44.99659666348782</v>
+        <v>45.16794453220739</v>
       </c>
       <c r="H9">
-        <v>1.819113615730974</v>
+        <v>1.723336398796167</v>
       </c>
       <c r="I9">
-        <v>3.977739977092377</v>
+        <v>3.717406661371045</v>
       </c>
       <c r="J9">
-        <v>12.70583671853706</v>
+        <v>13.08584808481929</v>
       </c>
       <c r="K9">
-        <v>14.97262235898195</v>
+        <v>14.38157333726279</v>
       </c>
       <c r="L9">
-        <v>11.12953632772093</v>
+        <v>11.07216038514475</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.04022674032904</v>
       </c>
       <c r="N9">
-        <v>14.85458668107541</v>
+        <v>10.8764065196945</v>
       </c>
       <c r="O9">
-        <v>18.90931414227754</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>14.83573689640637</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.8960483650649</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.37878872325326</v>
+        <v>24.37733006965204</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.732362936548125</v>
+        <v>9.408004458432732</v>
       </c>
       <c r="E10">
-        <v>19.50859079995434</v>
+        <v>19.0061229656546</v>
       </c>
       <c r="F10">
-        <v>29.51111940901958</v>
+        <v>29.37745267667891</v>
       </c>
       <c r="G10">
-        <v>48.17715734455367</v>
+        <v>48.68392334935469</v>
       </c>
       <c r="H10">
-        <v>1.801897520884553</v>
+        <v>1.853418865981594</v>
       </c>
       <c r="I10">
-        <v>3.693675014974113</v>
+        <v>3.479358027626233</v>
       </c>
       <c r="J10">
-        <v>13.18674685514144</v>
+        <v>13.19046615833854</v>
       </c>
       <c r="K10">
-        <v>14.29140921931408</v>
+        <v>13.79067842307221</v>
       </c>
       <c r="L10">
-        <v>11.87114822553639</v>
+        <v>10.85439069660564</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.413612749835218</v>
       </c>
       <c r="N10">
-        <v>16.12198667394896</v>
+        <v>11.61198537737632</v>
       </c>
       <c r="O10">
-        <v>20.3830395505055</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>15.9939323775193</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.36489088999235</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.26208365691215</v>
+        <v>25.29508065846206</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.27730263689291</v>
+        <v>9.819747502063606</v>
       </c>
       <c r="E11">
-        <v>21.26412638043089</v>
+        <v>20.51316009588044</v>
       </c>
       <c r="F11">
-        <v>27.77734281953968</v>
+        <v>27.60389247146902</v>
       </c>
       <c r="G11">
-        <v>46.370927678756</v>
+        <v>48.00552431362462</v>
       </c>
       <c r="H11">
-        <v>2.822732671538334</v>
+        <v>2.838393147696226</v>
       </c>
       <c r="I11">
-        <v>3.613878966370077</v>
+        <v>3.425451111291709</v>
       </c>
       <c r="J11">
-        <v>12.66724036310305</v>
+        <v>12.02466797491579</v>
       </c>
       <c r="K11">
-        <v>14.20568002607331</v>
+        <v>13.72700275287868</v>
       </c>
       <c r="L11">
-        <v>12.86763255306455</v>
+        <v>10.98040721230237</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.234226036504403</v>
       </c>
       <c r="N11">
-        <v>16.25196993449486</v>
+        <v>12.49592233027768</v>
       </c>
       <c r="O11">
-        <v>20.80143346130128</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>15.86583817682825</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.66391438017937</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.62245265607194</v>
+        <v>25.67892826672303</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.6057187736164</v>
+        <v>10.07180707259734</v>
       </c>
       <c r="E12">
-        <v>22.46711292295182</v>
+        <v>21.53790335733517</v>
       </c>
       <c r="F12">
-        <v>26.09091380570283</v>
+        <v>26.02047617543166</v>
       </c>
       <c r="G12">
-        <v>44.24657172629966</v>
+        <v>46.56849945619638</v>
       </c>
       <c r="H12">
-        <v>4.133871848518769</v>
+        <v>4.138453656640913</v>
       </c>
       <c r="I12">
-        <v>3.588096426747589</v>
+        <v>3.408503195732029</v>
       </c>
       <c r="J12">
-        <v>12.13625249014006</v>
+        <v>11.25248459974414</v>
       </c>
       <c r="K12">
-        <v>14.53398079173289</v>
+        <v>13.97287899590232</v>
       </c>
       <c r="L12">
-        <v>13.57528983796963</v>
+        <v>11.26532553453963</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.344607111228671</v>
       </c>
       <c r="N12">
-        <v>16.06514748707822</v>
+        <v>13.11198149868213</v>
       </c>
       <c r="O12">
-        <v>20.8273726060266</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>15.49755921184463</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20.60211033731163</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.60968181906913</v>
+        <v>25.68265735423254</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.80042220042095</v>
+        <v>10.24972742788695</v>
       </c>
       <c r="E13">
-        <v>23.37325324006124</v>
+        <v>22.32969299415419</v>
       </c>
       <c r="F13">
-        <v>24.22295978079391</v>
+        <v>24.45699496827057</v>
       </c>
       <c r="G13">
-        <v>41.56004333290448</v>
+        <v>44.16915659118995</v>
       </c>
       <c r="H13">
-        <v>5.472248399777368</v>
+        <v>5.475425933117999</v>
       </c>
       <c r="I13">
-        <v>3.614987309370051</v>
+        <v>3.433369528866173</v>
       </c>
       <c r="J13">
-        <v>11.52777537378767</v>
+        <v>10.8458211680877</v>
       </c>
       <c r="K13">
-        <v>15.14968443622788</v>
+        <v>14.39630661383127</v>
       </c>
       <c r="L13">
-        <v>14.13029006628411</v>
+        <v>11.60182516380202</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.656119470390179</v>
       </c>
       <c r="N13">
-        <v>15.65142842932669</v>
+        <v>13.59179558809883</v>
       </c>
       <c r="O13">
-        <v>20.57380793547109</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>14.9546626870519</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>20.28141496527237</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.43095451838922</v>
+        <v>25.51278039611047</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.88070105531376</v>
+        <v>10.34523048461</v>
       </c>
       <c r="E14">
-        <v>23.89409133683634</v>
+        <v>22.79680213073377</v>
       </c>
       <c r="F14">
-        <v>22.80465884068023</v>
+        <v>23.34237809674517</v>
       </c>
       <c r="G14">
-        <v>39.36441941900112</v>
+        <v>42.00512086121558</v>
       </c>
       <c r="H14">
-        <v>6.453491782009925</v>
+        <v>6.450491452135945</v>
       </c>
       <c r="I14">
-        <v>3.659806634131156</v>
+        <v>3.47254805378291</v>
       </c>
       <c r="J14">
-        <v>11.05818743172131</v>
+        <v>10.70790715328784</v>
       </c>
       <c r="K14">
-        <v>15.72161720583401</v>
+        <v>14.76952414633251</v>
       </c>
       <c r="L14">
-        <v>14.4615334369727</v>
+        <v>11.85111743247748</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.970512231428993</v>
       </c>
       <c r="N14">
-        <v>15.25997669528786</v>
+        <v>13.87612493688779</v>
       </c>
       <c r="O14">
-        <v>20.27000204990868</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>14.49291682332281</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>19.93803161528485</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.30575718855989</v>
+        <v>25.38853561586796</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.87309616258652</v>
+        <v>10.35331079056481</v>
       </c>
       <c r="E15">
-        <v>23.96380557059479</v>
+        <v>22.86569842814292</v>
       </c>
       <c r="F15">
-        <v>22.40494924744414</v>
+        <v>23.05563097103251</v>
       </c>
       <c r="G15">
-        <v>38.67750947734821</v>
+        <v>41.25358795024736</v>
       </c>
       <c r="H15">
-        <v>6.69414141689041</v>
+        <v>6.69036114384109</v>
       </c>
       <c r="I15">
-        <v>3.686089835056813</v>
+        <v>3.495860264585208</v>
       </c>
       <c r="J15">
-        <v>10.92263464479386</v>
+        <v>10.73394434899879</v>
       </c>
       <c r="K15">
-        <v>15.89661383914652</v>
+        <v>14.87874523214769</v>
       </c>
       <c r="L15">
-        <v>14.51191767944368</v>
+        <v>11.90595324740763</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.07755202842452</v>
       </c>
       <c r="N15">
-        <v>15.12346943120193</v>
+        <v>13.91831006722437</v>
       </c>
       <c r="O15">
-        <v>20.14091598065398</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>14.34924079743394</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>19.80227191135792</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.52622962759419</v>
+        <v>24.59567742582261</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.5795714162919</v>
+        <v>10.16388860443609</v>
       </c>
       <c r="E16">
-        <v>23.26565080339909</v>
+        <v>22.29012522186157</v>
       </c>
       <c r="F16">
-        <v>22.13052194589698</v>
+        <v>23.06865731425267</v>
       </c>
       <c r="G16">
-        <v>37.58723933706646</v>
+        <v>39.51296805810253</v>
       </c>
       <c r="H16">
-        <v>6.50106796255555</v>
+        <v>6.490263731032122</v>
       </c>
       <c r="I16">
-        <v>3.808391439309097</v>
+        <v>3.596344710444209</v>
       </c>
       <c r="J16">
-        <v>10.79964114469225</v>
+        <v>11.26619779778633</v>
       </c>
       <c r="K16">
-        <v>15.99453545565754</v>
+        <v>14.91197906880599</v>
       </c>
       <c r="L16">
-        <v>14.12755694112192</v>
+        <v>11.75108766397917</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.24991678991645</v>
       </c>
       <c r="N16">
-        <v>14.66922969259538</v>
+        <v>13.57453872369572</v>
       </c>
       <c r="O16">
-        <v>19.58007359955551</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>14.00176719595761</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>19.2750048783734</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.01409290458394</v>
+        <v>24.06893442390392</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.30578368509659</v>
+        <v>9.948087491014434</v>
       </c>
       <c r="E17">
-        <v>22.42682470007806</v>
+        <v>21.56043137927751</v>
       </c>
       <c r="F17">
-        <v>22.70157951790286</v>
+        <v>23.65388594348327</v>
       </c>
       <c r="G17">
-        <v>37.98354938717516</v>
+        <v>39.46973405443035</v>
       </c>
       <c r="H17">
-        <v>5.776899171124289</v>
+        <v>5.759082959665922</v>
       </c>
       <c r="I17">
-        <v>3.878785947341119</v>
+        <v>3.65361900751544</v>
       </c>
       <c r="J17">
-        <v>10.96356197829023</v>
+        <v>11.66853010839568</v>
       </c>
       <c r="K17">
-        <v>15.76691582914138</v>
+        <v>14.76635151249543</v>
       </c>
       <c r="L17">
-        <v>13.64238946503449</v>
+        <v>11.53360647263848</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.22338405264545</v>
       </c>
       <c r="N17">
-        <v>14.53412124473495</v>
+        <v>13.14215831269646</v>
       </c>
       <c r="O17">
-        <v>19.31130980871279</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>13.98157173773881</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>19.05022677668225</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.68727403962624</v>
+        <v>23.72344173134743</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.01851638641114</v>
+        <v>9.702356346240325</v>
       </c>
       <c r="E18">
-        <v>21.37169082030984</v>
+        <v>20.63477078051762</v>
       </c>
       <c r="F18">
-        <v>24.08834071106255</v>
+        <v>24.88019676596891</v>
       </c>
       <c r="G18">
-        <v>39.75400105535822</v>
+        <v>40.81421137147515</v>
       </c>
       <c r="H18">
-        <v>4.536011597693492</v>
+        <v>4.508606467374755</v>
       </c>
       <c r="I18">
-        <v>3.902250436003491</v>
+        <v>3.667888164319627</v>
       </c>
       <c r="J18">
-        <v>11.39916357275589</v>
+        <v>12.14074917691664</v>
       </c>
       <c r="K18">
-        <v>15.30821215310348</v>
+        <v>14.48675073144515</v>
       </c>
       <c r="L18">
-        <v>13.01858995675923</v>
+        <v>11.26658323248364</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.04743260748379</v>
       </c>
       <c r="N18">
-        <v>14.64527811883901</v>
+        <v>12.59291733749167</v>
       </c>
       <c r="O18">
-        <v>19.25704549596736</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>14.23642152428165</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>19.06159458957645</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.53190042936437</v>
+        <v>23.54840684123941</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.759685094258373</v>
+        <v>9.473348142870636</v>
       </c>
       <c r="E19">
-        <v>20.30385026261966</v>
+        <v>19.69750468331899</v>
       </c>
       <c r="F19">
-        <v>25.92049620300452</v>
+        <v>26.46274097854608</v>
       </c>
       <c r="G19">
-        <v>42.32838100469069</v>
+        <v>42.9801742354622</v>
       </c>
       <c r="H19">
-        <v>3.060250865226334</v>
+        <v>3.017621184954039</v>
       </c>
       <c r="I19">
-        <v>3.898249075752847</v>
+        <v>3.662518237878308</v>
       </c>
       <c r="J19">
-        <v>11.98539969671709</v>
+        <v>12.66015046270269</v>
       </c>
       <c r="K19">
-        <v>14.88718845335011</v>
+        <v>14.23391701944208</v>
       </c>
       <c r="L19">
-        <v>12.38405830704097</v>
+        <v>11.06285691354535</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.855287829368841</v>
       </c>
       <c r="N19">
-        <v>14.98780572044516</v>
+        <v>12.0375564725365</v>
       </c>
       <c r="O19">
-        <v>19.4011341432477</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>14.72841663984369</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>19.28174589423452</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.88053698820816</v>
+        <v>23.87439890050336</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.581437720509584</v>
+        <v>9.299091380891996</v>
       </c>
       <c r="E20">
-        <v>19.2103181126253</v>
+        <v>18.7440999724081</v>
       </c>
       <c r="F20">
-        <v>29.03281821107708</v>
+        <v>29.07712898563637</v>
       </c>
       <c r="G20">
-        <v>47.13046858274564</v>
+        <v>47.39111222017882</v>
       </c>
       <c r="H20">
-        <v>1.671937957417242</v>
+        <v>1.73729700325497</v>
       </c>
       <c r="I20">
-        <v>3.791661526850588</v>
+        <v>3.569306280019622</v>
       </c>
       <c r="J20">
-        <v>13.00819986896736</v>
+        <v>13.34082939904489</v>
       </c>
       <c r="K20">
-        <v>14.46428766398064</v>
+        <v>13.93859287287703</v>
       </c>
       <c r="L20">
-        <v>11.71933833597285</v>
+        <v>10.9026862281173</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.572097556257088</v>
       </c>
       <c r="N20">
-        <v>15.86522075043326</v>
+        <v>11.46693170325337</v>
       </c>
       <c r="O20">
-        <v>20.04413389979947</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>15.77421067221369</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.03097310013216</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.273849276706</v>
+        <v>25.28649596384108</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.0173536194417</v>
+        <v>9.552639535188852</v>
       </c>
       <c r="E21">
-        <v>20.06950510995582</v>
+        <v>19.42348990231844</v>
       </c>
       <c r="F21">
-        <v>30.41292176280223</v>
+        <v>29.71421918015505</v>
       </c>
       <c r="G21">
-        <v>50.14919147250995</v>
+        <v>51.5579531525684</v>
       </c>
       <c r="H21">
-        <v>2.053379340163239</v>
+        <v>2.071137853284183</v>
       </c>
       <c r="I21">
-        <v>3.566449394037571</v>
+        <v>3.385902170753047</v>
       </c>
       <c r="J21">
-        <v>13.52547538431587</v>
+        <v>12.4050081436947</v>
       </c>
       <c r="K21">
-        <v>13.94980414980661</v>
+        <v>13.5078487274196</v>
       </c>
       <c r="L21">
-        <v>12.15527785305677</v>
+        <v>10.78093978520514</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.101211579197429</v>
       </c>
       <c r="N21">
-        <v>16.86187974913595</v>
+        <v>11.85935017142904</v>
       </c>
       <c r="O21">
-        <v>21.16184122918893</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>16.62654219798114</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.10964115849942</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.15287683746644</v>
+        <v>26.17746568186847</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.30553263208624</v>
+        <v>9.716822829492125</v>
       </c>
       <c r="E22">
-        <v>20.65498437323874</v>
+        <v>19.88081237312905</v>
       </c>
       <c r="F22">
-        <v>31.24257690336801</v>
+        <v>30.0376978495567</v>
       </c>
       <c r="G22">
-        <v>51.98127810749234</v>
+        <v>54.19106301120242</v>
       </c>
       <c r="H22">
-        <v>2.297038811714543</v>
+        <v>2.283337591886833</v>
       </c>
       <c r="I22">
-        <v>3.41352115602824</v>
+        <v>3.258098936652857</v>
       </c>
       <c r="J22">
-        <v>13.84299857020246</v>
+        <v>11.71108148009282</v>
       </c>
       <c r="K22">
-        <v>13.61865861070186</v>
+        <v>13.23905720316932</v>
       </c>
       <c r="L22">
-        <v>12.45636210299264</v>
+        <v>10.72723908391146</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.798904872003368</v>
       </c>
       <c r="N22">
-        <v>17.43691954270469</v>
+        <v>12.12718786152628</v>
       </c>
       <c r="O22">
-        <v>21.8369017464385</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>17.10006325215192</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.75259391447863</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.69086019438627</v>
+        <v>25.70691706273677</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.14698972367256</v>
+        <v>9.64350162755364</v>
       </c>
       <c r="E23">
-        <v>20.32088471844337</v>
+        <v>19.64042937455936</v>
       </c>
       <c r="F23">
-        <v>30.85114231271737</v>
+        <v>29.98050534821191</v>
       </c>
       <c r="G23">
-        <v>51.07714378603755</v>
+        <v>52.71594184163457</v>
       </c>
       <c r="H23">
-        <v>2.167089856737749</v>
+        <v>2.172333686894685</v>
       </c>
       <c r="I23">
-        <v>3.485440519573888</v>
+        <v>3.313561945133908</v>
       </c>
       <c r="J23">
-        <v>13.69003560338881</v>
+        <v>12.24876713803186</v>
       </c>
       <c r="K23">
-        <v>13.79664177605066</v>
+        <v>13.3776369012406</v>
       </c>
       <c r="L23">
-        <v>12.28299352122295</v>
+        <v>10.74626731330703</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.961340256701018</v>
       </c>
       <c r="N23">
-        <v>17.10706802713872</v>
+        <v>11.98025741945168</v>
       </c>
       <c r="O23">
-        <v>21.46486647765467</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>16.83982317755105</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.40687134877828</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.85684735871709</v>
+        <v>23.8476977792525</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.542749569949923</v>
+        <v>9.265222065853074</v>
       </c>
       <c r="E24">
-        <v>19.05938229036377</v>
+        <v>18.6103959325227</v>
       </c>
       <c r="F24">
-        <v>29.30020623864404</v>
+        <v>29.3092529115343</v>
       </c>
       <c r="G24">
-        <v>47.49170829499199</v>
+        <v>47.68432358360135</v>
       </c>
       <c r="H24">
-        <v>1.670238982789</v>
+        <v>1.736704713355507</v>
       </c>
       <c r="I24">
-        <v>3.777181982205792</v>
+        <v>3.551070871307363</v>
       </c>
       <c r="J24">
-        <v>13.09343653632815</v>
+        <v>13.42321726264968</v>
       </c>
       <c r="K24">
-        <v>14.47455729186028</v>
+        <v>13.94657049343868</v>
       </c>
       <c r="L24">
-        <v>11.63301760599234</v>
+        <v>10.90362119533135</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.581766293132269</v>
       </c>
       <c r="N24">
-        <v>15.85047479732604</v>
+        <v>11.3900806571829</v>
       </c>
       <c r="O24">
-        <v>20.02451781790374</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>15.77997795493964</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.02306883125451</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.70960113602934</v>
+        <v>21.68740448600866</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.863568729866399</v>
+        <v>8.617885377463253</v>
       </c>
       <c r="E25">
-        <v>17.62632850321254</v>
+        <v>17.16992383830038</v>
       </c>
       <c r="F25">
-        <v>27.66138917948863</v>
+        <v>27.80706088449628</v>
       </c>
       <c r="G25">
-        <v>43.52540007512356</v>
+        <v>43.64562459761691</v>
       </c>
       <c r="H25">
-        <v>2.010539579159949</v>
+        <v>1.899736019934705</v>
       </c>
       <c r="I25">
-        <v>4.101137067002278</v>
+        <v>3.827193596080098</v>
       </c>
       <c r="J25">
-        <v>12.47148604785007</v>
+        <v>12.9549750801601</v>
       </c>
       <c r="K25">
-        <v>15.22062127136661</v>
+        <v>14.5990423471811</v>
       </c>
       <c r="L25">
-        <v>10.90002788419615</v>
+        <v>11.16171252393898</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.27487133822562</v>
       </c>
       <c r="N25">
-        <v>14.4209607014929</v>
+        <v>10.64068497900129</v>
       </c>
       <c r="O25">
-        <v>18.35633147357145</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>14.40165392299301</v>
       </c>
       <c r="Q25">
+        <v>18.33415790557037</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
